--- a/python/IMPACT_DB/merged_24hr_Rainfall.xlsx
+++ b/python/IMPACT_DB/merged_24hr_Rainfall.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\tanzania_app\python\IMPACT_DB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arusha" sheetId="1" r:id="rId1"/>
@@ -479,9 +484,6 @@
     <t>Kinondoni Mkwajuni</t>
   </si>
   <si>
-    <t>Chang'ombe B , ward , Temeke , District , Dar es Salaam</t>
-  </si>
-  <si>
     <t>2001-02-28</t>
   </si>
   <si>
@@ -2247,12 +2249,15 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>Chang ombe B , ward , Temeke , District , Dar es Salaam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -2327,6 +2332,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2374,7 +2382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2407,9 +2415,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2442,6 +2467,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2617,16 +2659,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2649,7 +2691,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2700,7 +2742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>36915</v>
       </c>
@@ -2723,7 +2765,7 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I2">
         <v>151</v>
@@ -2759,7 +2801,7 @@
         <v>36913</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>38772</v>
       </c>
@@ -2782,7 +2824,7 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I3">
         <v>173</v>
@@ -2821,7 +2863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>38777</v>
       </c>
@@ -2844,7 +2886,7 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I4">
         <v>174</v>
@@ -2880,7 +2922,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>39529</v>
       </c>
@@ -2903,7 +2945,7 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I5">
         <v>188</v>
@@ -2945,7 +2987,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>40872</v>
       </c>
@@ -2968,7 +3010,7 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I6">
         <v>14</v>
@@ -3010,7 +3052,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>40873</v>
       </c>
@@ -3033,7 +3075,7 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I7">
         <v>14</v>
@@ -3075,7 +3117,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>40966</v>
       </c>
@@ -3098,7 +3140,7 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I8">
         <v>225</v>
@@ -3137,7 +3179,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>41360</v>
       </c>
@@ -3160,7 +3202,7 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I9">
         <v>38</v>
@@ -3196,7 +3238,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>41364</v>
       </c>
@@ -3219,7 +3261,7 @@
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I10">
         <v>39</v>
@@ -3255,7 +3297,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>42352</v>
       </c>
@@ -3278,7 +3320,7 @@
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I11">
         <v>331</v>
@@ -3332,14 +3374,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -3362,7 +3404,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -3413,7 +3455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>38320</v>
       </c>
@@ -3436,13 +3478,13 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I2">
         <v>166</v>
       </c>
       <c r="M2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N2">
         <v>317</v>
@@ -3457,22 +3499,22 @@
         <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U2" t="s">
+        <v>305</v>
+      </c>
+      <c r="V2" t="s">
         <v>306</v>
-      </c>
-      <c r="V2" t="s">
-        <v>307</v>
       </c>
       <c r="W2" s="3">
         <v>38319</v>
       </c>
       <c r="X2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>42131</v>
       </c>
@@ -3495,13 +3537,13 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I3">
         <v>320</v>
       </c>
       <c r="M3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N3">
         <v>2048</v>
@@ -3516,22 +3558,22 @@
         <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="V3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W3" s="3">
         <v>42125</v>
       </c>
       <c r="X3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>42408</v>
       </c>
@@ -3554,13 +3596,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I4">
         <v>341</v>
       </c>
       <c r="M4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N4">
         <v>406</v>
@@ -3575,19 +3617,19 @@
         <v>34</v>
       </c>
       <c r="T4" t="s">
+        <v>304</v>
+      </c>
+      <c r="U4" t="s">
         <v>305</v>
       </c>
-      <c r="U4" t="s">
-        <v>306</v>
-      </c>
       <c r="V4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W4" s="3">
         <v>42407</v>
       </c>
       <c r="X4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3596,14 +3638,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -3626,7 +3668,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -3677,7 +3719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>39535</v>
       </c>
@@ -3700,19 +3742,19 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J2" t="s">
         <v>312</v>
-      </c>
-      <c r="J2" t="s">
-        <v>313</v>
       </c>
       <c r="K2">
         <v>80</v>
       </c>
       <c r="N2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O2" s="3">
         <v>39536</v>
@@ -3724,25 +3766,25 @@
         <v>31</v>
       </c>
       <c r="S2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U2" t="s">
+        <v>326</v>
+      </c>
+      <c r="V2" t="s">
         <v>327</v>
-      </c>
-      <c r="V2" t="s">
-        <v>328</v>
       </c>
       <c r="W2" s="3">
         <v>39536</v>
       </c>
       <c r="X2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>40556</v>
       </c>
@@ -3765,13 +3807,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I3">
         <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N3">
         <v>306</v>
@@ -3780,7 +3822,7 @@
         <v>40555</v>
       </c>
       <c r="P3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q3">
         <v>704</v>
@@ -3789,25 +3831,25 @@
         <v>43</v>
       </c>
       <c r="S3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W3" s="3">
         <v>40555</v>
       </c>
       <c r="X3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>41364</v>
       </c>
@@ -3830,13 +3872,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I4">
         <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N4">
         <v>377</v>
@@ -3851,10 +3893,10 @@
         <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V4" t="s">
         <v>56</v>
@@ -3866,7 +3908,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>41704</v>
       </c>
@@ -3889,7 +3931,7 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I5">
         <v>272</v>
@@ -3910,25 +3952,25 @@
         <v>77</v>
       </c>
       <c r="S5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W5" s="3">
         <v>41701</v>
       </c>
       <c r="X5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>42419</v>
       </c>
@@ -3951,13 +3993,13 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I6">
         <v>348</v>
       </c>
       <c r="M6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N6">
         <v>256</v>
@@ -3978,19 +4020,19 @@
         <v>34</v>
       </c>
       <c r="T6" t="s">
+        <v>325</v>
+      </c>
+      <c r="U6" t="s">
         <v>326</v>
       </c>
-      <c r="U6" t="s">
-        <v>327</v>
-      </c>
       <c r="V6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W6" s="3">
         <v>42415</v>
       </c>
       <c r="X6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3999,14 +4041,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -4029,7 +4071,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -4080,7 +4122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>40895</v>
       </c>
@@ -4103,13 +4145,13 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I2">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N2">
         <v>209</v>
@@ -4118,7 +4160,7 @@
         <v>40894</v>
       </c>
       <c r="P2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q2">
         <v>30</v>
@@ -4130,22 +4172,22 @@
         <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U2" t="s">
+        <v>343</v>
+      </c>
+      <c r="V2" t="s">
         <v>344</v>
-      </c>
-      <c r="V2" t="s">
-        <v>345</v>
       </c>
       <c r="W2" s="3">
         <v>40894</v>
       </c>
       <c r="X2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>41248</v>
       </c>
@@ -4168,13 +4210,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I3">
         <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N3">
         <v>290</v>
@@ -4183,7 +4225,7 @@
         <v>41247</v>
       </c>
       <c r="P3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q3">
         <v>100</v>
@@ -4195,13 +4237,13 @@
         <v>117</v>
       </c>
       <c r="T3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="V3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="W3" s="3">
         <v>41247</v>
@@ -4210,7 +4252,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>41722</v>
       </c>
@@ -4233,13 +4275,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I4">
         <v>53</v>
       </c>
       <c r="M4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N4">
         <v>319</v>
@@ -4248,7 +4290,7 @@
         <v>41721</v>
       </c>
       <c r="P4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -4257,25 +4299,25 @@
         <v>79</v>
       </c>
       <c r="S4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="T4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="U4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="V4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W4" s="3">
         <v>41721</v>
       </c>
       <c r="X4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>42700</v>
       </c>
@@ -4298,13 +4340,13 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I5">
         <v>120</v>
       </c>
       <c r="M5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N5">
         <v>208</v>
@@ -4319,13 +4361,13 @@
         <v>38</v>
       </c>
       <c r="T5" t="s">
+        <v>342</v>
+      </c>
+      <c r="U5" t="s">
         <v>343</v>
       </c>
-      <c r="U5" t="s">
-        <v>344</v>
-      </c>
       <c r="V5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="W5" s="3">
         <v>42696</v>
@@ -4337,14 +4379,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -4367,7 +4409,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -4418,7 +4460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>37643</v>
       </c>
@@ -4441,13 +4483,13 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I2">
         <v>162</v>
       </c>
       <c r="M2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N2">
         <v>269</v>
@@ -4462,22 +4504,22 @@
         <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U2" t="s">
+        <v>362</v>
+      </c>
+      <c r="V2" t="s">
         <v>363</v>
-      </c>
-      <c r="V2" t="s">
-        <v>364</v>
       </c>
       <c r="W2" s="3">
         <v>37644</v>
       </c>
       <c r="X2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>37653</v>
       </c>
@@ -4497,16 +4539,16 @@
         <v>-1.4186864182682699</v>
       </c>
       <c r="G3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I3">
         <v>162</v>
       </c>
       <c r="M3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N3">
         <v>269</v>
@@ -4521,22 +4563,22 @@
         <v>38</v>
       </c>
       <c r="T3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U3" t="s">
+        <v>362</v>
+      </c>
+      <c r="V3" t="s">
         <v>363</v>
-      </c>
-      <c r="V3" t="s">
-        <v>364</v>
       </c>
       <c r="W3" s="3">
         <v>37654</v>
       </c>
       <c r="X3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>41737</v>
       </c>
@@ -4559,13 +4601,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I4">
         <v>288</v>
       </c>
       <c r="M4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N4">
         <v>403</v>
@@ -4574,7 +4616,7 @@
         <v>41759</v>
       </c>
       <c r="P4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q4">
         <v>20000</v>
@@ -4586,22 +4628,22 @@
         <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="V4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W4" s="3">
         <v>41730</v>
       </c>
       <c r="X4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>41748</v>
       </c>
@@ -4624,10 +4666,10 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J5" t="s">
         <v>78</v>
@@ -4636,13 +4678,13 @@
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O5" s="3">
         <v>41753</v>
@@ -4654,22 +4696,22 @@
         <v>121</v>
       </c>
       <c r="T5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="U5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="V5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W5" s="3">
         <v>41748</v>
       </c>
       <c r="X5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>41758</v>
       </c>
@@ -4692,7 +4734,7 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I6">
         <v>59</v>
@@ -4716,22 +4758,22 @@
         <v>121</v>
       </c>
       <c r="T6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="V6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W6" s="3">
         <v>41756</v>
       </c>
       <c r="X6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>42472</v>
       </c>
@@ -4754,7 +4796,7 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I7">
         <v>111</v>
@@ -4766,7 +4808,7 @@
         <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N7">
         <v>341</v>
@@ -4775,7 +4817,7 @@
         <v>42478</v>
       </c>
       <c r="P7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q7">
         <v>305</v>
@@ -4787,19 +4829,19 @@
         <v>34</v>
       </c>
       <c r="T7" t="s">
+        <v>361</v>
+      </c>
+      <c r="U7" t="s">
         <v>362</v>
       </c>
-      <c r="U7" t="s">
-        <v>363</v>
-      </c>
       <c r="V7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="W7" s="3">
         <v>42472</v>
       </c>
       <c r="X7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4808,14 +4850,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -4838,7 +4880,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -4889,7 +4931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>38761</v>
       </c>
@@ -4912,7 +4954,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I2">
         <v>172</v>
@@ -4924,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N2">
         <v>268</v>
@@ -4939,13 +4981,13 @@
         <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U2" t="s">
+        <v>416</v>
+      </c>
+      <c r="V2" t="s">
         <v>417</v>
-      </c>
-      <c r="V2" t="s">
-        <v>418</v>
       </c>
       <c r="W2" s="3">
         <v>38762</v>
@@ -4954,7 +4996,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>40172</v>
       </c>
@@ -4977,16 +5019,16 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O3" s="3">
         <v>40178</v>
@@ -4998,22 +5040,22 @@
         <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="W3" s="3">
         <v>40148</v>
       </c>
       <c r="X3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>40183</v>
       </c>
@@ -5036,7 +5078,7 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I4">
         <v>204</v>
@@ -5054,25 +5096,25 @@
         <v>37</v>
       </c>
       <c r="S4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W4" s="3">
         <v>40179</v>
       </c>
       <c r="X4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>40239</v>
       </c>
@@ -5092,22 +5134,22 @@
         <v>-1.1192150630995601</v>
       </c>
       <c r="G5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I5">
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K5">
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N5">
         <v>819</v>
@@ -5122,22 +5164,22 @@
         <v>34</v>
       </c>
       <c r="T5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W5" s="3">
         <v>40179</v>
       </c>
       <c r="X5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>40539</v>
       </c>
@@ -5160,7 +5202,7 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I6">
         <v>259</v>
@@ -5178,22 +5220,22 @@
         <v>34</v>
       </c>
       <c r="T6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W6" s="3">
         <v>40538</v>
       </c>
       <c r="X6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>41660</v>
       </c>
@@ -5216,13 +5258,13 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I7">
         <v>322</v>
       </c>
       <c r="M7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N7">
         <v>513</v>
@@ -5231,7 +5273,7 @@
         <v>41666</v>
       </c>
       <c r="P7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q7">
         <v>300</v>
@@ -5243,13 +5285,13 @@
         <v>34</v>
       </c>
       <c r="T7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="U7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="W7" s="3">
         <v>41659</v>
@@ -5258,7 +5300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>41660</v>
       </c>
@@ -5281,10 +5323,10 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -5293,19 +5335,19 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O8" s="3">
         <v>41660</v>
       </c>
       <c r="P8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q8">
         <v>10000</v>
@@ -5317,22 +5359,22 @@
         <v>34</v>
       </c>
       <c r="T8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="W8" s="3">
         <v>41660</v>
       </c>
       <c r="X8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>41667</v>
       </c>
@@ -5355,16 +5397,16 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O9" s="3">
         <v>41668</v>
@@ -5382,22 +5424,22 @@
         <v>114</v>
       </c>
       <c r="T9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="W9" s="3">
         <v>41668</v>
       </c>
       <c r="X9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>41676</v>
       </c>
@@ -5420,13 +5462,13 @@
         <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I10">
         <v>286</v>
       </c>
       <c r="M10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N10">
         <v>1279</v>
@@ -5435,7 +5477,7 @@
         <v>41698</v>
       </c>
       <c r="P10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q10">
         <v>12000</v>
@@ -5447,22 +5489,22 @@
         <v>34</v>
       </c>
       <c r="T10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="W10" s="3">
         <v>41671</v>
       </c>
       <c r="X10" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>41741</v>
       </c>
@@ -5485,10 +5527,10 @@
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -5497,10 +5539,10 @@
         <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O11" s="3">
         <v>41743</v>
@@ -5515,25 +5557,25 @@
         <v>88</v>
       </c>
       <c r="S11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="U11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W11" s="3">
         <v>41739</v>
       </c>
       <c r="X11" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>41752</v>
       </c>
@@ -5556,7 +5598,7 @@
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I12">
         <v>60</v>
@@ -5574,25 +5616,25 @@
         <v>93</v>
       </c>
       <c r="S12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="W12" s="3">
         <v>41753</v>
       </c>
       <c r="X12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>42370</v>
       </c>
@@ -5615,7 +5657,7 @@
         <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I13">
         <v>97</v>
@@ -5630,7 +5672,7 @@
         <v>42369</v>
       </c>
       <c r="P13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q13">
         <v>2857</v>
@@ -5642,22 +5684,22 @@
         <v>34</v>
       </c>
       <c r="T13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="W13" s="3">
         <v>42359</v>
       </c>
       <c r="X13" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>42396</v>
       </c>
@@ -5680,13 +5722,13 @@
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I14">
         <v>352</v>
       </c>
       <c r="M14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N14">
         <v>233</v>
@@ -5701,22 +5743,22 @@
         <v>34</v>
       </c>
       <c r="T14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="W14" s="3">
         <v>42370</v>
       </c>
       <c r="X14" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>42408</v>
       </c>
@@ -5739,13 +5781,13 @@
         <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I15">
         <v>105</v>
       </c>
       <c r="M15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N15">
         <v>256</v>
@@ -5754,7 +5796,7 @@
         <v>42409</v>
       </c>
       <c r="P15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q15">
         <v>3000</v>
@@ -5763,25 +5805,25 @@
         <v>129</v>
       </c>
       <c r="S15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T15" t="s">
+        <v>415</v>
+      </c>
+      <c r="U15" t="s">
         <v>416</v>
       </c>
-      <c r="U15" t="s">
-        <v>417</v>
-      </c>
       <c r="V15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="W15" s="3">
         <v>42403</v>
       </c>
       <c r="X15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>42483</v>
       </c>
@@ -5804,10 +5846,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -5816,10 +5858,10 @@
         <v>5</v>
       </c>
       <c r="M16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O16" s="3">
         <v>42489</v>
@@ -5837,19 +5879,19 @@
         <v>121</v>
       </c>
       <c r="T16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="W16" s="3">
         <v>42482</v>
       </c>
       <c r="X16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5858,14 +5900,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -5888,7 +5930,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -5939,7 +5981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>40830</v>
       </c>
@@ -5962,7 +6004,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I2">
         <v>9</v>
@@ -5983,22 +6025,22 @@
         <v>35</v>
       </c>
       <c r="T2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U2" t="s">
+        <v>456</v>
+      </c>
+      <c r="V2" t="s">
         <v>457</v>
-      </c>
-      <c r="V2" t="s">
-        <v>458</v>
       </c>
       <c r="W2" s="3">
         <v>40831</v>
       </c>
       <c r="X2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>41292</v>
       </c>
@@ -6021,13 +6063,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I3">
         <v>240</v>
       </c>
       <c r="M3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N3">
         <v>216</v>
@@ -6042,22 +6084,22 @@
         <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="U3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="V3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="W3" s="3">
         <v>41288</v>
       </c>
       <c r="X3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>41305</v>
       </c>
@@ -6080,22 +6122,22 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M4" t="s">
         <v>89</v>
       </c>
       <c r="N4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O4" s="3">
         <v>41305</v>
       </c>
       <c r="P4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q4">
         <v>50</v>
@@ -6107,22 +6149,22 @@
         <v>120</v>
       </c>
       <c r="T4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="V4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="W4" s="3">
         <v>41305</v>
       </c>
       <c r="X4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>41644</v>
       </c>
@@ -6145,13 +6187,13 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I5">
         <v>251</v>
       </c>
       <c r="M5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N5">
         <v>289</v>
@@ -6160,7 +6202,7 @@
         <v>41644</v>
       </c>
       <c r="P5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R5">
         <v>69</v>
@@ -6169,22 +6211,22 @@
         <v>115</v>
       </c>
       <c r="T5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="U5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="V5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="W5" s="3">
         <v>41638</v>
       </c>
       <c r="X5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>42372</v>
       </c>
@@ -6207,13 +6249,13 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I6">
         <v>96</v>
       </c>
       <c r="M6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N6">
         <v>288</v>
@@ -6222,7 +6264,7 @@
         <v>42377</v>
       </c>
       <c r="P6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q6">
         <v>2000</v>
@@ -6234,19 +6276,19 @@
         <v>38</v>
       </c>
       <c r="T6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="V6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="W6" s="3">
         <v>42370</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>42396</v>
       </c>
@@ -6269,13 +6311,13 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I7">
         <v>102</v>
       </c>
       <c r="M7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N7">
         <v>180</v>
@@ -6290,22 +6332,22 @@
         <v>38</v>
       </c>
       <c r="T7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="V7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="W7" s="3">
         <v>42396</v>
       </c>
       <c r="X7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>42408</v>
       </c>
@@ -6328,7 +6370,7 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I8">
         <v>107</v>
@@ -6340,7 +6382,7 @@
         <v>42408</v>
       </c>
       <c r="P8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q8">
         <v>302</v>
@@ -6349,22 +6391,22 @@
         <v>130</v>
       </c>
       <c r="S8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T8" t="s">
+        <v>455</v>
+      </c>
+      <c r="U8" t="s">
         <v>456</v>
       </c>
-      <c r="U8" t="s">
-        <v>457</v>
-      </c>
       <c r="V8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W8" s="3">
         <v>42406</v>
       </c>
       <c r="X8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -6373,14 +6415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -6403,7 +6445,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -6454,7 +6496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>36860</v>
       </c>
@@ -6477,22 +6519,22 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I2">
         <v>150</v>
       </c>
       <c r="J2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K2">
         <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N2">
         <v>282</v>
@@ -6501,7 +6543,7 @@
         <v>36861</v>
       </c>
       <c r="P2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q2">
         <v>300</v>
@@ -6513,22 +6555,22 @@
         <v>113</v>
       </c>
       <c r="T2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="U2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="W2" s="3">
         <v>36861</v>
       </c>
       <c r="X2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>38091</v>
       </c>
@@ -6551,19 +6593,19 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I3">
         <v>164</v>
       </c>
       <c r="J3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K3">
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N3">
         <v>603</v>
@@ -6578,22 +6620,22 @@
         <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="U3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W3" s="3">
         <v>38092</v>
       </c>
       <c r="X3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>39067</v>
       </c>
@@ -6616,13 +6658,13 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I4">
         <v>178</v>
       </c>
       <c r="M4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N4">
         <v>315</v>
@@ -6643,22 +6685,22 @@
         <v>122</v>
       </c>
       <c r="T4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W4" s="3">
         <v>39052</v>
       </c>
       <c r="X4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>40861</v>
       </c>
@@ -6681,16 +6723,16 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O5" s="3">
         <v>40861</v>
@@ -6699,25 +6741,25 @@
         <v>46</v>
       </c>
       <c r="S5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="T5" t="s">
+        <v>487</v>
+      </c>
+      <c r="U5" t="s">
         <v>488</v>
       </c>
-      <c r="U5" t="s">
-        <v>489</v>
-      </c>
       <c r="V5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W5" s="3">
         <v>40861</v>
       </c>
       <c r="X5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>41867</v>
       </c>
@@ -6740,7 +6782,7 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I6">
         <v>63</v>
@@ -6761,25 +6803,25 @@
         <v>96</v>
       </c>
       <c r="S6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="U6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W6" s="3">
         <v>41866</v>
       </c>
       <c r="X6" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>41999</v>
       </c>
@@ -6802,7 +6844,7 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I7">
         <v>294</v>
@@ -6826,22 +6868,22 @@
         <v>115</v>
       </c>
       <c r="T7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="U7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="W7" s="3">
         <v>42000</v>
       </c>
       <c r="X7" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>42310</v>
       </c>
@@ -6864,10 +6906,10 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -6876,10 +6918,10 @@
         <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O8" s="3">
         <v>42310</v>
@@ -6888,25 +6930,25 @@
         <v>111</v>
       </c>
       <c r="S8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="T8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="U8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W8" s="3">
         <v>42310</v>
       </c>
       <c r="X8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>42358</v>
       </c>
@@ -6929,16 +6971,16 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I9">
         <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N9">
         <v>439</v>
@@ -6953,22 +6995,22 @@
         <v>117</v>
       </c>
       <c r="T9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="U9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="W9" s="3">
         <v>42359</v>
       </c>
       <c r="X9" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>42383</v>
       </c>
@@ -6991,7 +7033,7 @@
         <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I10">
         <v>98</v>
@@ -7015,13 +7057,13 @@
         <v>38</v>
       </c>
       <c r="T10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="U10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W10" s="3">
         <v>42383</v>
@@ -7030,7 +7072,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>42680</v>
       </c>
@@ -7053,16 +7095,16 @@
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I11">
         <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N11">
         <v>240</v>
@@ -7071,7 +7113,7 @@
         <v>42680</v>
       </c>
       <c r="P11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q11">
         <v>590</v>
@@ -7083,19 +7125,19 @@
         <v>38</v>
       </c>
       <c r="T11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="U11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W11" s="3">
         <v>42679</v>
       </c>
       <c r="X11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -7104,14 +7146,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B1:X1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7131,7 +7173,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -7188,14 +7230,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -7218,7 +7260,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -7269,7 +7311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>37334</v>
       </c>
@@ -7292,19 +7334,19 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I2">
         <v>159</v>
       </c>
       <c r="J2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K2">
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N2">
         <v>497</v>
@@ -7319,22 +7361,22 @@
         <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="U2" t="s">
+        <v>520</v>
+      </c>
+      <c r="V2" t="s">
         <v>521</v>
-      </c>
-      <c r="V2" t="s">
-        <v>522</v>
       </c>
       <c r="W2" s="3">
         <v>37316</v>
       </c>
       <c r="X2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>37365</v>
       </c>
@@ -7357,13 +7399,13 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I3">
         <v>157</v>
       </c>
       <c r="M3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N3">
         <v>347</v>
@@ -7378,22 +7420,22 @@
         <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="U3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="V3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W3" s="3">
         <v>37365</v>
       </c>
       <c r="X3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>38782</v>
       </c>
@@ -7416,13 +7458,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I4">
         <v>175</v>
       </c>
       <c r="M4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N4">
         <v>392</v>
@@ -7437,22 +7479,22 @@
         <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="U4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="V4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="W4" s="3">
         <v>38783</v>
       </c>
       <c r="X4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>41740</v>
       </c>
@@ -7475,13 +7517,13 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I5">
         <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N5">
         <v>311</v>
@@ -7496,13 +7538,13 @@
         <v>37</v>
       </c>
       <c r="T5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="U5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="V5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W5" s="3">
         <v>41741</v>
@@ -7511,7 +7553,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>42389</v>
       </c>
@@ -7534,16 +7576,16 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M6" t="s">
+        <v>513</v>
+      </c>
+      <c r="N6" t="s">
         <v>514</v>
-      </c>
-      <c r="N6" t="s">
-        <v>515</v>
       </c>
       <c r="O6" s="3">
         <v>42400</v>
@@ -7555,19 +7597,19 @@
         <v>34</v>
       </c>
       <c r="T6" t="s">
+        <v>519</v>
+      </c>
+      <c r="U6" t="s">
         <v>520</v>
       </c>
-      <c r="U6" t="s">
-        <v>521</v>
-      </c>
       <c r="V6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="W6" s="3">
         <v>42387</v>
       </c>
       <c r="X6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -7576,14 +7618,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -7606,7 +7648,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -7657,7 +7699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>42348</v>
       </c>
@@ -7680,16 +7722,16 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I2">
         <v>92</v>
       </c>
       <c r="L2" t="s">
+        <v>527</v>
+      </c>
+      <c r="M2" t="s">
         <v>528</v>
-      </c>
-      <c r="M2" t="s">
-        <v>529</v>
       </c>
       <c r="N2">
         <v>324</v>
@@ -7698,7 +7740,7 @@
         <v>42348</v>
       </c>
       <c r="P2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q2">
         <v>2450</v>
@@ -7710,19 +7752,19 @@
         <v>117</v>
       </c>
       <c r="T2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U2" t="s">
+        <v>537</v>
+      </c>
+      <c r="V2" t="s">
         <v>538</v>
-      </c>
-      <c r="V2" t="s">
-        <v>539</v>
       </c>
       <c r="W2" s="3">
         <v>42341</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>42630</v>
       </c>
@@ -7745,13 +7787,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I3">
         <v>364</v>
       </c>
       <c r="M3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N3">
         <v>334</v>
@@ -7760,7 +7802,7 @@
         <v>42629</v>
       </c>
       <c r="P3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q3">
         <v>50</v>
@@ -7772,13 +7814,13 @@
         <v>35</v>
       </c>
       <c r="T3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="V3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="W3" s="3">
         <v>42629</v>
@@ -7787,7 +7829,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>42631</v>
       </c>
@@ -7810,13 +7852,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I4">
         <v>366</v>
       </c>
       <c r="M4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N4">
         <v>355</v>
@@ -7825,7 +7867,7 @@
         <v>42630</v>
       </c>
       <c r="P4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q4">
         <v>45</v>
@@ -7834,22 +7876,22 @@
         <v>142</v>
       </c>
       <c r="S4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="T4" t="s">
+        <v>536</v>
+      </c>
+      <c r="U4" t="s">
         <v>537</v>
       </c>
-      <c r="U4" t="s">
-        <v>538</v>
-      </c>
       <c r="V4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="W4" s="3">
         <v>42630</v>
       </c>
       <c r="X4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -7858,16 +7900,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -7890,7 +7935,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -7941,470 +7986,470 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
-        <v>36949</v>
+        <v>41262</v>
       </c>
       <c r="B2">
-        <v>46.148333231608099</v>
+        <v>0.57916666163752495</v>
       </c>
       <c r="C2">
-        <v>51.978333289424597</v>
+        <v>1.2341666559998501</v>
       </c>
       <c r="D2">
-        <v>75.646666406653907</v>
+        <v>9.0149999579104403</v>
       </c>
       <c r="E2">
-        <v>75.669166406150893</v>
+        <v>9.1066666248565298</v>
       </c>
       <c r="F2">
-        <v>0.64756599397745196</v>
+        <v>-0.227103610689871</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>709</v>
-      </c>
-      <c r="I2" t="s">
-        <v>65</v>
+        <v>622</v>
+      </c>
+      <c r="I2">
+        <v>33</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" t="s">
-        <v>102</v>
+        <v>41</v>
+      </c>
+      <c r="N2">
+        <v>984</v>
       </c>
       <c r="O2" s="3">
-        <v>36949</v>
+        <v>41263</v>
       </c>
       <c r="R2">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="S2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="T2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="U2" t="s">
         <v>131</v>
       </c>
       <c r="V2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="W2" s="3">
-        <v>36949</v>
+        <v>41263</v>
       </c>
       <c r="X2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>37365</v>
+        <v>41357</v>
       </c>
       <c r="B3">
-        <v>24.224166472752898</v>
+        <v>6.7058333555857299</v>
       </c>
       <c r="C3">
-        <v>66.586666425069197</v>
+        <v>10.309166689248</v>
       </c>
       <c r="D3">
-        <v>96.216666610135405</v>
+        <v>22.9766666688956</v>
       </c>
       <c r="E3">
-        <v>213.85083341707201</v>
+        <v>35.796666674160797</v>
       </c>
       <c r="F3">
-        <v>1.64134619652008</v>
+        <v>0.40573294851464098</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>616</v>
-      </c>
-      <c r="I3">
-        <v>156</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
+        <v>710</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
       </c>
       <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>170</v>
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" t="s">
+        <v>104</v>
       </c>
       <c r="O3" s="3">
-        <v>37366</v>
+        <v>41357</v>
       </c>
       <c r="R3">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="S3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="T3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="U3" t="s">
         <v>131</v>
       </c>
       <c r="V3" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="W3" s="3">
-        <v>37366</v>
+        <v>41357</v>
       </c>
       <c r="X3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
-        <v>38277</v>
+        <v>42697</v>
       </c>
       <c r="B4">
-        <v>36.707500139872202</v>
+        <v>10.7049997846285</v>
       </c>
       <c r="C4">
-        <v>45.848333546581401</v>
+        <v>11.488333117216699</v>
       </c>
       <c r="D4">
-        <v>93.421666481376903</v>
+        <v>12.587499769714899</v>
       </c>
       <c r="E4">
-        <v>93.459999815405595</v>
+        <v>12.7808331044701</v>
       </c>
       <c r="F4">
-        <v>1.9787201857435599</v>
+        <v>-0.69545534916891905</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="I4">
-        <v>165</v>
-      </c>
-      <c r="M4" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="N4">
-        <v>601</v>
+        <v>219</v>
       </c>
       <c r="O4" s="3">
-        <v>38277</v>
+        <v>42697</v>
       </c>
       <c r="R4">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="S4" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="T4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="U4" t="s">
         <v>131</v>
       </c>
       <c r="V4" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="W4" s="3">
-        <v>38276</v>
+        <v>42697</v>
       </c>
       <c r="X4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
-        <v>38492</v>
+        <v>39910</v>
       </c>
       <c r="B5">
-        <v>98.809167226155594</v>
+        <v>18.152499794960001</v>
       </c>
       <c r="C5">
-        <v>117.371667325497</v>
+        <v>34.230833192666303</v>
       </c>
       <c r="D5">
-        <v>117.3775006587</v>
+        <v>50.2658330127596</v>
       </c>
       <c r="E5">
-        <v>121.881667343434</v>
+        <v>65.257499776159705</v>
       </c>
       <c r="F5">
-        <v>1.45348431067109</v>
+        <v>0.92705369149161199</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I5">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N5">
-        <v>259</v>
+        <v>2036</v>
       </c>
       <c r="O5" s="3">
-        <v>38492</v>
+        <v>39911</v>
       </c>
       <c r="R5">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S5" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="T5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="U5" t="s">
         <v>131</v>
       </c>
       <c r="V5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W5" s="3">
-        <v>38492</v>
+        <v>39911</v>
       </c>
       <c r="X5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
-        <v>39533</v>
+        <v>42411</v>
       </c>
       <c r="B6">
-        <v>38.136666615804003</v>
+        <v>23.884166558583601</v>
       </c>
       <c r="C6">
-        <v>52.474999956321</v>
+        <v>44.441666444142598</v>
       </c>
       <c r="D6">
-        <v>63.202499779096399</v>
+        <v>45.529999781555198</v>
       </c>
       <c r="E6">
-        <v>67.5316664931985</v>
+        <v>45.548333114478801</v>
       </c>
       <c r="F6">
-        <v>-0.57289551007054595</v>
+        <v>0.13734938497955801</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="I6">
-        <v>186</v>
-      </c>
-      <c r="M6" t="s">
-        <v>84</v>
+        <v>342</v>
       </c>
       <c r="N6">
-        <v>629</v>
+        <v>310</v>
       </c>
       <c r="O6" s="3">
-        <v>39535</v>
+        <v>42414</v>
       </c>
       <c r="R6">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="S6" t="s">
         <v>34</v>
       </c>
       <c r="T6" t="s">
-        <v>132</v>
+        <v>735</v>
       </c>
       <c r="U6" t="s">
         <v>131</v>
       </c>
       <c r="V6" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="W6" s="3">
-        <v>39531</v>
+        <v>42408</v>
       </c>
       <c r="X6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
-        <v>39910</v>
+        <v>41751</v>
       </c>
       <c r="B7">
-        <v>18.152499794960001</v>
+        <v>23.9116665522257</v>
       </c>
       <c r="C7">
-        <v>34.230833192666303</v>
+        <v>33.429999813747798</v>
       </c>
       <c r="D7">
-        <v>50.2658330127596</v>
+        <v>220.353333033311</v>
       </c>
       <c r="E7">
-        <v>65.257499776159705</v>
+        <v>259.21250001232499</v>
       </c>
       <c r="F7">
-        <v>0.92705369149161199</v>
+        <v>0.86634661537924396</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="I7">
-        <v>191</v>
+        <v>58</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
       </c>
       <c r="M7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="N7">
-        <v>2036</v>
+        <v>434</v>
       </c>
       <c r="O7" s="3">
-        <v>39911</v>
+        <v>41753</v>
       </c>
       <c r="R7">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="S7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="T7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U7" t="s">
         <v>131</v>
       </c>
       <c r="V7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="W7" s="3">
-        <v>39911</v>
+        <v>41746</v>
       </c>
       <c r="X7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
-        <v>40158</v>
+        <v>37365</v>
       </c>
       <c r="B8">
-        <v>33.5175000826518</v>
+        <v>24.224166472752898</v>
       </c>
       <c r="C8">
-        <v>34.308333407311402</v>
+        <v>66.586666425069197</v>
       </c>
       <c r="D8">
-        <v>56.660833441186597</v>
+        <v>96.216666610135405</v>
       </c>
       <c r="E8">
-        <v>56.860000105574699</v>
+        <v>213.85083341707201</v>
       </c>
       <c r="F8">
-        <v>-0.22895957562171701</v>
+        <v>1.64134619652008</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="I8">
-        <v>246</v>
+        <v>156</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1692</v>
+        <v>170</v>
       </c>
       <c r="O8" s="3">
-        <v>40178</v>
+        <v>37366</v>
       </c>
       <c r="R8">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="S8" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="T8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U8" t="s">
         <v>131</v>
       </c>
       <c r="V8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="W8" s="3">
-        <v>40148</v>
+        <v>37366</v>
       </c>
       <c r="X8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
-        <v>40296</v>
+        <v>41341</v>
       </c>
       <c r="B9">
-        <v>110.260833104451</v>
+        <v>29.3350001970927</v>
       </c>
       <c r="C9">
-        <v>192.024166345596</v>
+        <v>49.979166870315801</v>
       </c>
       <c r="D9">
-        <v>192.388333014522</v>
+        <v>82.030833284991402</v>
       </c>
       <c r="E9">
-        <v>197.42166634090199</v>
+        <v>89.400833296279103</v>
       </c>
       <c r="F9">
-        <v>0.251431637421068</v>
+        <v>0.40573294851464098</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I9">
-        <v>199</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N9">
-        <v>817</v>
+        <v>1234</v>
       </c>
       <c r="O9" s="3">
-        <v>40296</v>
+        <v>41364</v>
       </c>
       <c r="R9">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="S9" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="T9" t="s">
         <v>131</v>
@@ -8413,134 +8458,113 @@
         <v>131</v>
       </c>
       <c r="V9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="W9" s="3">
-        <v>40290</v>
+        <v>41334</v>
       </c>
       <c r="X9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
-        <v>40897</v>
+        <v>40158</v>
       </c>
       <c r="B10">
-        <v>71.333333015441895</v>
+        <v>33.5175000826518</v>
       </c>
       <c r="C10">
-        <v>157.453332901001</v>
+        <v>34.308333407311402</v>
       </c>
       <c r="D10">
-        <v>159.554166229131</v>
+        <v>56.660833441186597</v>
       </c>
       <c r="E10">
-        <v>160.93999955973899</v>
+        <v>56.860000105574699</v>
       </c>
       <c r="F10">
-        <v>1.6540448780422301</v>
+        <v>-0.22895957562171701</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>710</v>
-      </c>
-      <c r="I10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10">
-        <v>40</v>
-      </c>
-      <c r="L10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N10" t="s">
-        <v>103</v>
+        <v>620</v>
+      </c>
+      <c r="I10">
+        <v>246</v>
+      </c>
+      <c r="N10">
+        <v>1692</v>
       </c>
       <c r="O10" s="3">
-        <v>40900</v>
-      </c>
-      <c r="P10">
-        <v>4909</v>
-      </c>
-      <c r="Q10">
-        <v>4909</v>
+        <v>40178</v>
       </c>
       <c r="R10">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="S10" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="T10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="U10" t="s">
         <v>131</v>
       </c>
       <c r="V10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W10" s="3">
-        <v>40897</v>
+        <v>40148</v>
       </c>
       <c r="X10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
-        <v>41262</v>
+        <v>41766</v>
       </c>
       <c r="B11">
-        <v>0.57916666163752495</v>
+        <v>34.057499726613401</v>
       </c>
       <c r="C11">
-        <v>1.2341666559998501</v>
+        <v>57.803332870205203</v>
       </c>
       <c r="D11">
-        <v>9.0149999579104403</v>
+        <v>106.426665936907</v>
       </c>
       <c r="E11">
-        <v>9.1066666248565298</v>
+        <v>119.84999939551</v>
       </c>
       <c r="F11">
-        <v>-0.227103610689871</v>
+        <v>1.0619733269845399</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="I11">
-        <v>33</v>
-      </c>
-      <c r="J11">
-        <v>41</v>
-      </c>
-      <c r="K11">
-        <v>41</v>
+        <v>287</v>
+      </c>
+      <c r="M11" t="s">
+        <v>95</v>
       </c>
       <c r="N11">
-        <v>984</v>
+        <v>368</v>
       </c>
       <c r="O11" s="3">
-        <v>41263</v>
+        <v>41770</v>
       </c>
       <c r="R11">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="S11" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="T11" t="s">
         <v>131</v>
@@ -8549,328 +8573,343 @@
         <v>131</v>
       </c>
       <c r="V11" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="W11" s="3">
-        <v>41263</v>
+        <v>41764</v>
       </c>
       <c r="X11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
-        <v>41341</v>
+        <v>38277</v>
       </c>
       <c r="B12">
-        <v>29.3350001970927</v>
+        <v>36.707500139872202</v>
       </c>
       <c r="C12">
-        <v>49.979166870315801</v>
+        <v>45.848333546581401</v>
       </c>
       <c r="D12">
-        <v>82.030833284991402</v>
+        <v>93.421666481376903</v>
       </c>
       <c r="E12">
-        <v>89.400833296279103</v>
+        <v>93.459999815405595</v>
       </c>
       <c r="F12">
-        <v>0.40573294851464098</v>
+        <v>1.9787201857435599</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="I12">
-        <v>40</v>
+        <v>165</v>
+      </c>
+      <c r="M12" t="s">
+        <v>84</v>
       </c>
       <c r="N12">
-        <v>1234</v>
+        <v>601</v>
       </c>
       <c r="O12" s="3">
-        <v>41364</v>
+        <v>38277</v>
       </c>
       <c r="R12">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="S12" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="T12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U12" t="s">
         <v>131</v>
       </c>
       <c r="V12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="W12" s="3">
-        <v>41334</v>
+        <v>38276</v>
       </c>
       <c r="X12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
-        <v>41357</v>
+        <v>39533</v>
       </c>
       <c r="B13">
-        <v>6.7058333555857299</v>
+        <v>38.136666615804003</v>
       </c>
       <c r="C13">
-        <v>10.309166689248</v>
+        <v>52.474999956321</v>
       </c>
       <c r="D13">
-        <v>22.9766666688956</v>
+        <v>63.202499779096399</v>
       </c>
       <c r="E13">
-        <v>35.796666674160797</v>
+        <v>67.5316664931985</v>
       </c>
       <c r="F13">
-        <v>0.40573294851464098</v>
+        <v>-0.57289551007054595</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>711</v>
-      </c>
-      <c r="I13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>80</v>
+        <v>618</v>
+      </c>
+      <c r="I13">
+        <v>186</v>
       </c>
       <c r="M13" t="s">
-        <v>88</v>
-      </c>
-      <c r="N13" t="s">
-        <v>104</v>
+        <v>84</v>
+      </c>
+      <c r="N13">
+        <v>629</v>
       </c>
       <c r="O13" s="3">
-        <v>41357</v>
+        <v>39535</v>
       </c>
       <c r="R13">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="S13" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="T13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="U13" t="s">
         <v>131</v>
       </c>
       <c r="V13" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="W13" s="3">
-        <v>41357</v>
+        <v>39531</v>
       </c>
       <c r="X13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
-        <v>41702</v>
+        <v>42135</v>
       </c>
       <c r="B14">
-        <v>49.500833034515402</v>
+        <v>40.869167009989397</v>
       </c>
       <c r="C14">
-        <v>103.979999343554</v>
+        <v>75.970833837985793</v>
       </c>
       <c r="D14">
-        <v>114.454999522151</v>
+        <v>272.96666773517302</v>
       </c>
       <c r="E14">
-        <v>114.455832855466</v>
+        <v>338.81833457434499</v>
       </c>
       <c r="F14">
-        <v>2.5873390523870801</v>
+        <v>2.1211458204570199</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="I14">
-        <v>51</v>
+        <v>77</v>
+      </c>
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" t="s">
+        <v>100</v>
       </c>
       <c r="N14">
-        <v>479</v>
+        <v>759</v>
       </c>
       <c r="O14" s="3">
-        <v>41703</v>
+        <v>42135</v>
       </c>
       <c r="R14">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="S14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="T14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="U14" t="s">
         <v>131</v>
       </c>
       <c r="V14" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="W14" s="3">
-        <v>41703</v>
+        <v>42135</v>
       </c>
       <c r="X14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
-        <v>41724</v>
+        <v>36949</v>
       </c>
       <c r="B15">
-        <v>83.077498753865598</v>
+        <v>46.148333231608099</v>
       </c>
       <c r="C15">
-        <v>87.202498748898407</v>
+        <v>51.978333289424597</v>
       </c>
       <c r="D15">
-        <v>92.2583320943328</v>
+        <v>75.646666406653907</v>
       </c>
       <c r="E15">
-        <v>93.141665429653102</v>
+        <v>75.669166406150893</v>
       </c>
       <c r="F15">
-        <v>2.5873390523870801</v>
+        <v>0.64756599397745196</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>626</v>
-      </c>
-      <c r="I15">
-        <v>52</v>
+        <v>708</v>
+      </c>
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
       </c>
       <c r="M15" t="s">
-        <v>89</v>
-      </c>
-      <c r="N15">
-        <v>383</v>
+        <v>83</v>
+      </c>
+      <c r="N15" t="s">
+        <v>102</v>
       </c>
       <c r="O15" s="3">
-        <v>41723</v>
+        <v>36949</v>
       </c>
       <c r="R15">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="S15" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="T15" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="U15" t="s">
         <v>131</v>
       </c>
       <c r="V15" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="W15" s="3">
-        <v>41723</v>
+        <v>36949</v>
       </c>
       <c r="X15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
-        <v>41724</v>
+        <v>42002</v>
       </c>
       <c r="B16">
-        <v>83.077498753865598</v>
+        <v>48.064999739328996</v>
       </c>
       <c r="C16">
-        <v>123.70749912907699</v>
+        <v>48.064999739328897</v>
       </c>
       <c r="D16">
-        <v>129.17749913611101</v>
+        <v>48.276666408559898</v>
       </c>
       <c r="E16">
-        <v>130.06083247143201</v>
+        <v>48.329166407697002</v>
       </c>
       <c r="F16">
-        <v>2.5873390523870801</v>
+        <v>0.93016928856729197</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="I16">
-        <v>52</v>
-      </c>
-      <c r="M16" t="s">
-        <v>90</v>
+        <v>67</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="O16" s="3">
-        <v>41724</v>
+        <v>42002</v>
       </c>
       <c r="R16">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="S16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="T16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="U16" t="s">
         <v>131</v>
       </c>
       <c r="V16" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="W16" s="3">
-        <v>41724</v>
+        <v>42002</v>
       </c>
       <c r="X16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
-        <v>41724</v>
+        <v>41702</v>
       </c>
       <c r="B17">
-        <v>83.077498753865598</v>
+        <v>49.500833034515402</v>
       </c>
       <c r="C17">
-        <v>161.304998556773</v>
+        <v>103.979999343554</v>
       </c>
       <c r="D17">
-        <v>170.386665229996</v>
+        <v>114.454999522151</v>
       </c>
       <c r="E17">
-        <v>170.87749856539699</v>
+        <v>114.455832855466</v>
       </c>
       <c r="F17">
         <v>2.5873390523870801</v>
@@ -8879,560 +8918,548 @@
         <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="I17">
-        <v>54</v>
-      </c>
-      <c r="M17" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="N17">
-        <v>1143</v>
+        <v>479</v>
       </c>
       <c r="O17" s="3">
-        <v>41725</v>
-      </c>
-      <c r="P17" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q17">
-        <v>300</v>
+        <v>41703</v>
       </c>
       <c r="R17">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="T17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U17" t="s">
         <v>131</v>
       </c>
       <c r="V17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W17" s="3">
-        <v>41725</v>
+        <v>41703</v>
       </c>
       <c r="X17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
-        <v>41741</v>
+        <v>42353</v>
       </c>
       <c r="B18">
-        <v>102.520000457764</v>
+        <v>49.789166768391901</v>
       </c>
       <c r="C18">
-        <v>213.80499969919501</v>
+        <v>49.789166768391802</v>
       </c>
       <c r="D18">
-        <v>252.695000011319</v>
+        <v>49.789166768391901</v>
       </c>
       <c r="E18">
-        <v>262.88083337619997</v>
+        <v>49.789166768391901</v>
       </c>
       <c r="F18">
-        <v>0.86634661537924396</v>
+        <v>-0.35138549017216197</v>
       </c>
       <c r="G18" t="s">
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18">
-        <v>25</v>
-      </c>
-      <c r="L18" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="M18" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="N18" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="O18" s="3">
-        <v>41742</v>
+        <v>42353</v>
       </c>
       <c r="R18">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="S18" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="T18" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="U18" t="s">
         <v>131</v>
       </c>
       <c r="V18" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="W18" s="3">
-        <v>41736</v>
+        <v>42353</v>
       </c>
       <c r="X18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
-        <v>41741</v>
+        <v>42389</v>
       </c>
       <c r="B19">
-        <v>102.520000457764</v>
+        <v>52.469166119893401</v>
       </c>
       <c r="C19">
-        <v>213.80499969919501</v>
+        <v>64.4791662252197</v>
       </c>
       <c r="D19">
-        <v>252.695000011319</v>
+        <v>65.601666223102598</v>
       </c>
       <c r="E19">
-        <v>262.88083337619997</v>
+        <v>65.601666223102598</v>
       </c>
       <c r="F19">
-        <v>0.86634661537924396</v>
+        <v>1.94025245866508</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>713</v>
-      </c>
-      <c r="I19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19">
-        <v>10</v>
-      </c>
-      <c r="K19">
-        <v>10</v>
+        <v>634</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
       </c>
       <c r="M19" t="s">
-        <v>93</v>
-      </c>
-      <c r="N19" t="s">
-        <v>106</v>
+        <v>84</v>
+      </c>
+      <c r="N19">
+        <v>588</v>
       </c>
       <c r="O19" s="3">
-        <v>41741</v>
+        <v>42390</v>
       </c>
       <c r="R19">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="S19" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="T19" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="U19" t="s">
         <v>131</v>
       </c>
       <c r="V19" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="W19" s="3">
-        <v>41739</v>
+        <v>42390</v>
       </c>
       <c r="X19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
-        <v>41741</v>
+        <v>40897</v>
       </c>
       <c r="B20">
-        <v>102.520000457764</v>
+        <v>71.333333015441895</v>
       </c>
       <c r="C20">
-        <v>213.80499969919501</v>
+        <v>157.453332901001</v>
       </c>
       <c r="D20">
-        <v>252.695000011319</v>
+        <v>159.554166229131</v>
       </c>
       <c r="E20">
-        <v>262.88083337619997</v>
+        <v>160.93999955973899</v>
       </c>
       <c r="F20">
-        <v>0.86634661537924396</v>
+        <v>1.6540448780422301</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>628</v>
-      </c>
-      <c r="I20">
-        <v>278</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
+        <v>709</v>
+      </c>
+      <c r="I20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" t="s">
+        <v>74</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="L20" t="s">
+        <v>79</v>
       </c>
       <c r="M20" t="s">
-        <v>94</v>
-      </c>
-      <c r="N20">
-        <v>376</v>
+        <v>87</v>
+      </c>
+      <c r="N20" t="s">
+        <v>103</v>
       </c>
       <c r="O20" s="3">
-        <v>41742</v>
+        <v>40900</v>
+      </c>
+      <c r="P20">
+        <v>4909</v>
+      </c>
+      <c r="Q20">
+        <v>4909</v>
       </c>
       <c r="R20">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="S20" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="T20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="U20" t="s">
         <v>131</v>
       </c>
       <c r="V20" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="W20" s="3">
-        <v>41742</v>
+        <v>40897</v>
       </c>
       <c r="X20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
-        <v>41751</v>
+        <v>41724</v>
       </c>
       <c r="B21">
-        <v>23.9116665522257</v>
+        <v>83.077498753865598</v>
       </c>
       <c r="C21">
-        <v>33.429999813747798</v>
+        <v>87.202498748898407</v>
       </c>
       <c r="D21">
-        <v>220.353333033311</v>
+        <v>92.2583320943328</v>
       </c>
       <c r="E21">
-        <v>259.21250001232499</v>
+        <v>93.141665429653102</v>
       </c>
       <c r="F21">
-        <v>0.86634661537924396</v>
+        <v>2.5873390523870801</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I21">
-        <v>58</v>
-      </c>
-      <c r="L21" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="M21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="N21">
-        <v>434</v>
+        <v>383</v>
       </c>
       <c r="O21" s="3">
-        <v>41753</v>
+        <v>41723</v>
       </c>
       <c r="R21">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="U21" t="s">
         <v>131</v>
       </c>
       <c r="V21" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="W21" s="3">
-        <v>41746</v>
+        <v>41723</v>
       </c>
       <c r="X21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
-        <v>41766</v>
+        <v>41724</v>
       </c>
       <c r="B22">
-        <v>34.057499726613401</v>
+        <v>83.077498753865598</v>
       </c>
       <c r="C22">
-        <v>57.803332870205203</v>
+        <v>123.70749912907699</v>
       </c>
       <c r="D22">
-        <v>106.426665936907</v>
+        <v>129.17749913611101</v>
       </c>
       <c r="E22">
-        <v>119.84999939551</v>
+        <v>130.06083247143201</v>
       </c>
       <c r="F22">
-        <v>1.0619733269845399</v>
+        <v>2.5873390523870801</v>
       </c>
       <c r="G22" t="s">
         <v>23</v>
       </c>
       <c r="H22" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="I22">
-        <v>287</v>
+        <v>52</v>
       </c>
       <c r="M22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N22">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="O22" s="3">
-        <v>41770</v>
+        <v>41724</v>
       </c>
       <c r="R22">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="T22" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="U22" t="s">
         <v>131</v>
       </c>
       <c r="V22" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="W22" s="3">
-        <v>41764</v>
+        <v>41724</v>
       </c>
       <c r="X22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
-        <v>42002</v>
+        <v>41724</v>
       </c>
       <c r="B23">
-        <v>48.064999739328996</v>
+        <v>83.077498753865598</v>
       </c>
       <c r="C23">
-        <v>48.064999739328897</v>
+        <v>161.304998556773</v>
       </c>
       <c r="D23">
-        <v>48.276666408559898</v>
+        <v>170.386665229996</v>
       </c>
       <c r="E23">
-        <v>48.329166407697002</v>
+        <v>170.87749856539699</v>
       </c>
       <c r="F23">
-        <v>0.93016928856729197</v>
+        <v>2.5873390523870801</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="I23">
-        <v>67</v>
-      </c>
-      <c r="J23" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="M23" t="s">
+        <v>91</v>
       </c>
       <c r="N23">
-        <v>350</v>
+        <v>1143</v>
       </c>
       <c r="O23" s="3">
-        <v>42002</v>
+        <v>41725</v>
+      </c>
+      <c r="P23" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q23">
+        <v>300</v>
       </c>
       <c r="R23">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="S23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="T23" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="U23" t="s">
         <v>131</v>
       </c>
       <c r="V23" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="W23" s="3">
-        <v>42002</v>
+        <v>41725</v>
       </c>
       <c r="X23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
-        <v>42084</v>
+        <v>42130</v>
       </c>
       <c r="B24">
-        <v>92.695000330607101</v>
+        <v>84.263333002726199</v>
       </c>
       <c r="C24">
-        <v>119.613333607713</v>
+        <v>195.95500055948901</v>
       </c>
       <c r="D24">
-        <v>131.545833466885</v>
+        <v>254.13916753636099</v>
       </c>
       <c r="E24">
-        <v>131.545833466885</v>
+        <v>274.43250084823597</v>
       </c>
       <c r="F24">
-        <v>0.85337583578804399</v>
+        <v>2.1211458204570199</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>714</v>
-      </c>
-      <c r="I24" t="s">
-        <v>70</v>
+        <v>632</v>
+      </c>
+      <c r="I24">
+        <v>76</v>
       </c>
       <c r="J24">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K24">
-        <v>7</v>
-      </c>
-      <c r="M24" t="s">
-        <v>96</v>
-      </c>
-      <c r="N24" t="s">
-        <v>107</v>
+        <v>12</v>
+      </c>
+      <c r="N24">
+        <v>324</v>
       </c>
       <c r="O24" s="3">
-        <v>42083</v>
-      </c>
-      <c r="P24" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q24">
-        <v>5000</v>
+        <v>42136</v>
       </c>
       <c r="R24">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T24" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="U24" t="s">
         <v>131</v>
       </c>
       <c r="V24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W24" s="3">
-        <v>42083</v>
+        <v>42122</v>
       </c>
       <c r="X24" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
-        <v>42084</v>
+        <v>42130</v>
       </c>
       <c r="B25">
-        <v>92.695000330607101</v>
+        <v>84.263333002726199</v>
       </c>
       <c r="C25">
-        <v>156.72500006357799</v>
+        <v>195.95500055948901</v>
       </c>
       <c r="D25">
-        <v>170.514999916932</v>
+        <v>255.01666753971901</v>
       </c>
       <c r="E25">
-        <v>170.564166584052</v>
+        <v>274.43250084823597</v>
       </c>
       <c r="F25">
-        <v>0.85337583578804399</v>
+        <v>2.1211458204570199</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>632</v>
-      </c>
-      <c r="I25">
-        <v>72</v>
+        <v>714</v>
+      </c>
+      <c r="I25" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>8</v>
       </c>
       <c r="M25" t="s">
-        <v>97</v>
-      </c>
-      <c r="N25">
-        <v>327</v>
+        <v>98</v>
+      </c>
+      <c r="N25" t="s">
+        <v>108</v>
       </c>
       <c r="O25" s="3">
-        <v>42084</v>
+        <v>42132</v>
+      </c>
+      <c r="P25">
+        <v>300</v>
+      </c>
+      <c r="Q25">
+        <v>300</v>
       </c>
       <c r="R25">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="T25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U25" t="s">
         <v>131</v>
       </c>
       <c r="V25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="W25" s="3">
-        <v>42084</v>
+        <v>42130</v>
       </c>
       <c r="X25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>42130</v>
       </c>
@@ -9443,10 +9470,10 @@
         <v>195.95500055948901</v>
       </c>
       <c r="D26">
-        <v>254.13916753636099</v>
+        <v>272.96666773517302</v>
       </c>
       <c r="E26">
-        <v>274.43250084823597</v>
+        <v>330.98750137770497</v>
       </c>
       <c r="F26">
         <v>2.1211458204570199</v>
@@ -9455,31 +9482,34 @@
         <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>633</v>
-      </c>
-      <c r="I26">
-        <v>76</v>
-      </c>
-      <c r="J26">
-        <v>12</v>
+        <v>715</v>
+      </c>
+      <c r="I26" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" t="s">
+        <v>78</v>
       </c>
       <c r="K26">
-        <v>12</v>
-      </c>
-      <c r="N26">
-        <v>324</v>
+        <v>3</v>
+      </c>
+      <c r="M26" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" t="s">
+        <v>109</v>
       </c>
       <c r="O26" s="3">
-        <v>42136</v>
+        <v>42131</v>
       </c>
       <c r="R26">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S26" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="U26" t="s">
         <v>131</v>
@@ -9488,199 +9518,184 @@
         <v>169</v>
       </c>
       <c r="W26" s="3">
-        <v>42122</v>
+        <v>42131</v>
       </c>
       <c r="X26" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
-        <v>42130</v>
+        <v>42084</v>
       </c>
       <c r="B27">
-        <v>84.263333002726199</v>
+        <v>92.695000330607101</v>
       </c>
       <c r="C27">
-        <v>195.95500055948901</v>
+        <v>119.613333607713</v>
       </c>
       <c r="D27">
-        <v>255.01666753971901</v>
+        <v>131.545833466885</v>
       </c>
       <c r="E27">
-        <v>274.43250084823597</v>
+        <v>131.545833466885</v>
       </c>
       <c r="F27">
-        <v>2.1211458204570199</v>
+        <v>0.85337583578804399</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O27" s="3">
-        <v>42132</v>
-      </c>
-      <c r="P27">
-        <v>300</v>
+        <v>42083</v>
+      </c>
+      <c r="P27" t="s">
+        <v>112</v>
       </c>
       <c r="Q27">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="R27">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="S27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U27" t="s">
         <v>131</v>
       </c>
       <c r="V27" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="W27" s="3">
-        <v>42130</v>
+        <v>42083</v>
       </c>
       <c r="X27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
-        <v>42130</v>
+        <v>42084</v>
       </c>
       <c r="B28">
-        <v>84.263333002726199</v>
+        <v>92.695000330607101</v>
       </c>
       <c r="C28">
-        <v>195.95500055948901</v>
+        <v>156.72500006357799</v>
       </c>
       <c r="D28">
-        <v>272.96666773517302</v>
+        <v>170.514999916932</v>
       </c>
       <c r="E28">
-        <v>330.98750137770497</v>
+        <v>170.564166584052</v>
       </c>
       <c r="F28">
-        <v>2.1211458204570199</v>
+        <v>0.85337583578804399</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>716</v>
-      </c>
-      <c r="I28" t="s">
+        <v>631</v>
+      </c>
+      <c r="I28">
         <v>72</v>
       </c>
-      <c r="J28" t="s">
-        <v>78</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
       <c r="M28" t="s">
-        <v>99</v>
-      </c>
-      <c r="N28" t="s">
-        <v>109</v>
+        <v>97</v>
+      </c>
+      <c r="N28">
+        <v>327</v>
       </c>
       <c r="O28" s="3">
-        <v>42131</v>
+        <v>42084</v>
       </c>
       <c r="R28">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S28" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="T28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U28" t="s">
         <v>131</v>
       </c>
       <c r="V28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="W28" s="3">
-        <v>42131</v>
+        <v>42084</v>
       </c>
       <c r="X28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
-        <v>42135</v>
+        <v>38492</v>
       </c>
       <c r="B29">
-        <v>40.869167009989397</v>
+        <v>98.809167226155594</v>
       </c>
       <c r="C29">
-        <v>75.970833837985793</v>
+        <v>117.371667325497</v>
       </c>
       <c r="D29">
-        <v>272.96666773517302</v>
+        <v>117.3775006587</v>
       </c>
       <c r="E29">
-        <v>338.81833457434499</v>
+        <v>121.881667343434</v>
       </c>
       <c r="F29">
-        <v>2.1211458204570199</v>
+        <v>1.45348431067109</v>
       </c>
       <c r="G29" t="s">
         <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="I29">
-        <v>77</v>
-      </c>
-      <c r="J29">
-        <v>12</v>
-      </c>
-      <c r="K29">
-        <v>12</v>
-      </c>
-      <c r="L29" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="M29" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N29">
-        <v>759</v>
+        <v>259</v>
       </c>
       <c r="O29" s="3">
-        <v>42135</v>
+        <v>38492</v>
       </c>
       <c r="R29">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="S29" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="T29" t="s">
         <v>131</v>
@@ -9689,259 +9704,292 @@
         <v>131</v>
       </c>
       <c r="V29" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="W29" s="3">
-        <v>42135</v>
+        <v>38492</v>
       </c>
       <c r="X29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
-        <v>42353</v>
+        <v>41741</v>
       </c>
       <c r="B30">
-        <v>49.789166768391901</v>
+        <v>102.520000457764</v>
       </c>
       <c r="C30">
-        <v>49.789166768391802</v>
+        <v>213.80499969919501</v>
       </c>
       <c r="D30">
-        <v>49.789166768391901</v>
+        <v>252.695000011319</v>
       </c>
       <c r="E30">
-        <v>49.789166768391901</v>
+        <v>262.88083337619997</v>
       </c>
       <c r="F30">
-        <v>-0.35138549017216197</v>
+        <v>0.86634661537924396</v>
       </c>
       <c r="G30" t="s">
         <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I30" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30">
+        <v>25</v>
+      </c>
+      <c r="L30" t="s">
+        <v>80</v>
       </c>
       <c r="M30" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="N30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O30" s="3">
-        <v>42353</v>
+        <v>41742</v>
       </c>
       <c r="R30">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="S30" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="T30" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="U30" t="s">
         <v>131</v>
       </c>
       <c r="V30" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="W30" s="3">
-        <v>42353</v>
+        <v>41736</v>
       </c>
       <c r="X30" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
-        <v>42389</v>
+        <v>41741</v>
       </c>
       <c r="B31">
-        <v>52.469166119893401</v>
+        <v>102.520000457764</v>
       </c>
       <c r="C31">
-        <v>64.4791662252197</v>
+        <v>213.80499969919501</v>
       </c>
       <c r="D31">
-        <v>65.601666223102598</v>
+        <v>252.695000011319</v>
       </c>
       <c r="E31">
-        <v>65.601666223102598</v>
+        <v>262.88083337619997</v>
       </c>
       <c r="F31">
-        <v>1.94025245866508</v>
+        <v>0.86634661537924396</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>635</v>
-      </c>
-      <c r="I31">
-        <v>100</v>
+        <v>712</v>
+      </c>
+      <c r="I31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
       </c>
       <c r="M31" t="s">
-        <v>84</v>
-      </c>
-      <c r="N31">
-        <v>588</v>
+        <v>93</v>
+      </c>
+      <c r="N31" t="s">
+        <v>106</v>
       </c>
       <c r="O31" s="3">
-        <v>42390</v>
+        <v>41741</v>
       </c>
       <c r="R31">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="S31" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="T31" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="U31" t="s">
         <v>131</v>
       </c>
       <c r="V31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="W31" s="3">
-        <v>42390</v>
+        <v>41739</v>
       </c>
       <c r="X31" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
-        <v>42411</v>
+        <v>41741</v>
       </c>
       <c r="B32">
-        <v>23.884166558583601</v>
+        <v>102.520000457764</v>
       </c>
       <c r="C32">
-        <v>44.441666444142598</v>
+        <v>213.80499969919501</v>
       </c>
       <c r="D32">
-        <v>45.529999781555198</v>
+        <v>252.695000011319</v>
       </c>
       <c r="E32">
-        <v>45.548333114478801</v>
+        <v>262.88083337619997</v>
       </c>
       <c r="F32">
-        <v>0.13734938497955801</v>
+        <v>0.86634661537924396</v>
       </c>
       <c r="G32" t="s">
         <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="I32">
-        <v>342</v>
+        <v>278</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>94</v>
       </c>
       <c r="N32">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="O32" s="3">
-        <v>42414</v>
+        <v>41742</v>
       </c>
       <c r="R32">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="S32" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="T32" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="U32" t="s">
         <v>131</v>
       </c>
       <c r="V32" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="W32" s="3">
-        <v>42408</v>
+        <v>41742</v>
       </c>
       <c r="X32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
-        <v>42697</v>
+        <v>40296</v>
       </c>
       <c r="B33">
-        <v>10.7049997846285</v>
+        <v>110.260833104451</v>
       </c>
       <c r="C33">
-        <v>11.488333117216699</v>
+        <v>192.024166345596</v>
       </c>
       <c r="D33">
-        <v>12.587499769714899</v>
+        <v>192.388333014522</v>
       </c>
       <c r="E33">
-        <v>12.7808331044701</v>
+        <v>197.42166634090199</v>
       </c>
       <c r="F33">
-        <v>-0.69545534916891905</v>
+        <v>0.251431637421068</v>
       </c>
       <c r="G33" t="s">
         <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="I33">
-        <v>119</v>
+        <v>199</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>219</v>
+        <v>817</v>
       </c>
       <c r="O33" s="3">
-        <v>42697</v>
+        <v>40296</v>
       </c>
       <c r="R33">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="S33" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="T33" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="U33" t="s">
         <v>131</v>
       </c>
       <c r="V33" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="W33" s="3">
-        <v>42697</v>
+        <v>40290</v>
       </c>
       <c r="X33" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:X33">
+    <sortCondition ref="B2:B33"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -9964,7 +10012,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -10015,7 +10063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>38047</v>
       </c>
@@ -10038,7 +10086,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I2">
         <v>163</v>
@@ -10062,22 +10110,22 @@
         <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="U2" t="s">
+        <v>545</v>
+      </c>
+      <c r="V2" t="s">
         <v>546</v>
-      </c>
-      <c r="V2" t="s">
-        <v>547</v>
       </c>
       <c r="W2" s="3">
         <v>38045</v>
       </c>
       <c r="X2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>38355</v>
       </c>
@@ -10100,7 +10148,7 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I3">
         <v>167</v>
@@ -10112,7 +10160,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N3">
         <v>534</v>
@@ -10127,19 +10175,19 @@
         <v>115</v>
       </c>
       <c r="T3" t="s">
+        <v>544</v>
+      </c>
+      <c r="U3" t="s">
         <v>545</v>
       </c>
-      <c r="U3" t="s">
-        <v>546</v>
-      </c>
       <c r="V3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="W3" s="3">
         <v>38353</v>
       </c>
       <c r="X3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -10148,14 +10196,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -10178,7 +10226,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -10229,7 +10277,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>41377</v>
       </c>
@@ -10252,13 +10300,13 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I2">
         <v>244</v>
       </c>
       <c r="M2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N2">
         <v>449</v>
@@ -10273,22 +10321,22 @@
         <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U2" t="s">
+        <v>558</v>
+      </c>
+      <c r="V2" t="s">
         <v>559</v>
-      </c>
-      <c r="V2" t="s">
-        <v>560</v>
       </c>
       <c r="W2" s="3">
         <v>41377</v>
       </c>
       <c r="X2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>42066</v>
       </c>
@@ -10308,13 +10356,13 @@
         <v>-1.8059367051817901</v>
       </c>
       <c r="G3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J3">
         <v>47</v>
@@ -10323,19 +10371,19 @@
         <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M3" t="s">
+        <v>551</v>
+      </c>
+      <c r="N3" t="s">
         <v>552</v>
-      </c>
-      <c r="N3" t="s">
-        <v>553</v>
       </c>
       <c r="O3" s="3">
         <v>42066</v>
       </c>
       <c r="P3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q3">
         <v>3500</v>
@@ -10344,25 +10392,25 @@
         <v>100</v>
       </c>
       <c r="S3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="W3" s="3">
         <v>42066</v>
       </c>
       <c r="X3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>42274</v>
       </c>
@@ -10385,7 +10433,7 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I4">
         <v>324</v>
@@ -10415,19 +10463,19 @@
         <v>34</v>
       </c>
       <c r="T4" t="s">
+        <v>557</v>
+      </c>
+      <c r="U4" t="s">
         <v>558</v>
       </c>
-      <c r="U4" t="s">
-        <v>559</v>
-      </c>
       <c r="V4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="W4" s="3">
         <v>42268</v>
       </c>
       <c r="X4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -10436,14 +10484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -10466,7 +10514,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -10517,7 +10565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>41379</v>
       </c>
@@ -10540,13 +10588,13 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I2">
         <v>244</v>
       </c>
       <c r="M2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N2">
         <v>449</v>
@@ -10561,19 +10609,19 @@
         <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="W2" s="3">
         <v>41377</v>
       </c>
       <c r="X2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -10582,14 +10630,14 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -10612,7 +10660,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -10663,7 +10711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>41273</v>
       </c>
@@ -10686,7 +10734,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I2">
         <v>34</v>
@@ -10710,22 +10758,22 @@
         <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="U2" t="s">
+        <v>569</v>
+      </c>
+      <c r="V2" t="s">
         <v>570</v>
-      </c>
-      <c r="V2" t="s">
-        <v>571</v>
       </c>
       <c r="W2" s="3">
         <v>41272</v>
       </c>
       <c r="X2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>41276</v>
       </c>
@@ -10748,13 +10796,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I3">
         <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N3">
         <v>586</v>
@@ -10766,25 +10814,25 @@
         <v>57</v>
       </c>
       <c r="S3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T3" t="s">
+        <v>568</v>
+      </c>
+      <c r="U3" t="s">
         <v>569</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>570</v>
-      </c>
-      <c r="V3" t="s">
-        <v>571</v>
       </c>
       <c r="W3" s="3">
         <v>41275</v>
       </c>
       <c r="X3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>41303</v>
       </c>
@@ -10807,16 +10855,16 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I4">
         <v>239</v>
       </c>
       <c r="L4" t="s">
+        <v>565</v>
+      </c>
+      <c r="M4" t="s">
         <v>566</v>
-      </c>
-      <c r="M4" t="s">
-        <v>567</v>
       </c>
       <c r="N4">
         <v>300</v>
@@ -10831,19 +10879,19 @@
         <v>38</v>
       </c>
       <c r="T4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="U4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="V4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="W4" s="3">
         <v>41303</v>
       </c>
       <c r="X4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -10852,14 +10900,14 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -10882,7 +10930,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -10933,7 +10981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>41999</v>
       </c>
@@ -10956,7 +11004,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I2">
         <v>66</v>
@@ -10989,22 +11037,22 @@
         <v>115</v>
       </c>
       <c r="T2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="U2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="V2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="W2" s="3">
         <v>42000</v>
       </c>
       <c r="X2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>42351</v>
       </c>
@@ -11027,13 +11075,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I3">
         <v>330</v>
       </c>
       <c r="M3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N3">
         <v>483</v>
@@ -11042,7 +11090,7 @@
         <v>42357</v>
       </c>
       <c r="P3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q3">
         <v>300</v>
@@ -11054,19 +11102,19 @@
         <v>38</v>
       </c>
       <c r="T3" t="s">
+        <v>576</v>
+      </c>
+      <c r="U3" t="s">
         <v>577</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>578</v>
-      </c>
-      <c r="V3" t="s">
-        <v>579</v>
       </c>
       <c r="W3" s="3">
         <v>42352</v>
       </c>
       <c r="X3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -11075,14 +11123,14 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -11105,7 +11153,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -11156,7 +11204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>38352</v>
       </c>
@@ -11179,13 +11227,13 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I2">
         <v>167</v>
       </c>
       <c r="M2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N2">
         <v>534</v>
@@ -11197,25 +11245,25 @@
         <v>21</v>
       </c>
       <c r="S2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="T2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="U2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="V2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="W2" s="3">
         <v>38353</v>
       </c>
       <c r="X2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>40295</v>
       </c>
@@ -11238,7 +11286,7 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I3">
         <v>6</v>
@@ -11253,7 +11301,7 @@
         <v>40301</v>
       </c>
       <c r="P3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="Q3">
         <v>200</v>
@@ -11262,22 +11310,22 @@
         <v>41</v>
       </c>
       <c r="S3" t="s">
+        <v>583</v>
+      </c>
+      <c r="T3" t="s">
+        <v>585</v>
+      </c>
+      <c r="U3" t="s">
         <v>584</v>
       </c>
-      <c r="T3" t="s">
-        <v>586</v>
-      </c>
-      <c r="U3" t="s">
-        <v>585</v>
-      </c>
       <c r="V3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="W3" s="3">
         <v>40294</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>41676</v>
       </c>
@@ -11300,7 +11348,7 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I4">
         <v>268</v>
@@ -11315,7 +11363,7 @@
         <v>41676</v>
       </c>
       <c r="P4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="Q4">
         <v>400</v>
@@ -11327,19 +11375,19 @@
         <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="U4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="V4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="W4" s="3">
         <v>41676</v>
       </c>
       <c r="X4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -11348,14 +11396,14 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -11378,7 +11426,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -11429,7 +11477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>38458</v>
       </c>
@@ -11452,10 +11500,10 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -11464,19 +11512,19 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
+        <v>592</v>
+      </c>
+      <c r="M2" t="s">
         <v>593</v>
       </c>
-      <c r="M2" t="s">
-        <v>594</v>
-      </c>
       <c r="N2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O2" s="3">
         <v>38460</v>
       </c>
       <c r="P2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Q2">
         <v>16000</v>
@@ -11488,22 +11536,22 @@
         <v>115</v>
       </c>
       <c r="T2" t="s">
+        <v>598</v>
+      </c>
+      <c r="U2" t="s">
         <v>599</v>
       </c>
-      <c r="U2" t="s">
-        <v>600</v>
-      </c>
       <c r="V2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="W2" s="3">
         <v>38459</v>
       </c>
       <c r="X2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>42131</v>
       </c>
@@ -11526,7 +11574,7 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I3">
         <v>309</v>
@@ -11553,22 +11601,22 @@
         <v>121</v>
       </c>
       <c r="T3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="U3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="V3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W3" s="3">
         <v>42131</v>
       </c>
       <c r="X3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>42477</v>
       </c>
@@ -11591,28 +11639,28 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O4" s="3">
         <v>42478</v>
       </c>
       <c r="P4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q4">
         <v>100</v>
@@ -11624,19 +11672,19 @@
         <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="U4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="V4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="W4" s="3">
         <v>42478</v>
       </c>
       <c r="X4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -11645,14 +11693,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -11675,7 +11723,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -11726,7 +11774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>41741</v>
       </c>
@@ -11749,13 +11797,13 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I2">
         <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K2">
         <v>40</v>
@@ -11773,19 +11821,19 @@
         <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W2" s="3">
         <v>41736</v>
       </c>
       <c r="X2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -11794,14 +11842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -11824,7 +11872,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -11875,7 +11923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>37365</v>
       </c>
@@ -11898,13 +11946,13 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I2">
         <v>158</v>
       </c>
       <c r="M2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N2">
         <v>533</v>
@@ -11919,13 +11967,13 @@
         <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W2" s="3">
         <v>37361</v>
@@ -11934,7 +11982,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>40182</v>
       </c>
@@ -11957,13 +12005,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I3">
         <v>204</v>
       </c>
       <c r="M3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N3">
         <v>1162</v>
@@ -11978,22 +12026,22 @@
         <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W3" s="3">
         <v>40179</v>
       </c>
       <c r="X3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>40182</v>
       </c>
@@ -12016,13 +12064,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I4">
         <v>204</v>
       </c>
       <c r="M4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N4">
         <v>1162</v>
@@ -12043,22 +12091,22 @@
         <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W4" s="3">
         <v>40179</v>
       </c>
       <c r="X4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>40895</v>
       </c>
@@ -12081,13 +12129,13 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I5">
         <v>213</v>
       </c>
       <c r="M5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N5">
         <v>218</v>
@@ -12096,7 +12144,7 @@
         <v>40896</v>
       </c>
       <c r="P5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q5">
         <v>1500</v>
@@ -12105,25 +12153,25 @@
         <v>50</v>
       </c>
       <c r="S5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="W5" s="3">
         <v>40896</v>
       </c>
       <c r="X5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>41726</v>
       </c>
@@ -12146,13 +12194,13 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I6">
         <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -12167,25 +12215,25 @@
         <v>83</v>
       </c>
       <c r="S6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W6" s="3">
         <v>41725</v>
       </c>
       <c r="X6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>42370</v>
       </c>
@@ -12208,13 +12256,13 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I7">
         <v>336</v>
       </c>
       <c r="M7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N7">
         <v>628</v>
@@ -12223,7 +12271,7 @@
         <v>42370</v>
       </c>
       <c r="P7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q7">
         <v>800</v>
@@ -12232,25 +12280,25 @@
         <v>118</v>
       </c>
       <c r="S7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W7" s="3">
         <v>42370</v>
       </c>
       <c r="X7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>42373</v>
       </c>
@@ -12273,10 +12321,10 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J8">
         <v>8</v>
@@ -12285,7 +12333,7 @@
         <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O8" s="3">
         <v>42372</v>
@@ -12294,16 +12342,16 @@
         <v>121</v>
       </c>
       <c r="S8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T8" t="s">
+        <v>228</v>
+      </c>
+      <c r="U8" t="s">
         <v>229</v>
       </c>
-      <c r="U8" t="s">
-        <v>230</v>
-      </c>
       <c r="V8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W8" s="3">
         <v>42372</v>
@@ -12312,7 +12360,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>42387</v>
       </c>
@@ -12335,13 +12383,13 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I9">
         <v>335</v>
       </c>
       <c r="M9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N9">
         <v>542</v>
@@ -12350,7 +12398,7 @@
         <v>42386</v>
       </c>
       <c r="P9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q9">
         <v>778</v>
@@ -12362,22 +12410,22 @@
         <v>122</v>
       </c>
       <c r="T9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W9" s="3">
         <v>42386</v>
       </c>
       <c r="X9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>42387</v>
       </c>
@@ -12400,16 +12448,16 @@
         <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I10">
         <v>336</v>
       </c>
       <c r="L10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N10">
         <v>628</v>
@@ -12418,7 +12466,7 @@
         <v>42390</v>
       </c>
       <c r="P10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q10">
         <v>3000</v>
@@ -12430,22 +12478,22 @@
         <v>34</v>
       </c>
       <c r="T10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W10" s="3">
         <v>42387</v>
       </c>
       <c r="X10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>42463</v>
       </c>
@@ -12468,7 +12516,7 @@
         <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I11">
         <v>351</v>
@@ -12483,7 +12531,7 @@
         <v>42464</v>
       </c>
       <c r="P11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q11">
         <v>100</v>
@@ -12495,13 +12543,13 @@
         <v>34</v>
       </c>
       <c r="T11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="W11" s="3">
         <v>42464</v>
@@ -12516,14 +12564,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -12546,7 +12594,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -12597,7 +12645,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>37380</v>
       </c>
@@ -12620,7 +12668,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I2">
         <v>160</v>
@@ -12632,7 +12680,7 @@
         <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N2">
         <v>342</v>
@@ -12641,7 +12689,7 @@
         <v>37383</v>
       </c>
       <c r="P2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q2">
         <v>300</v>
@@ -12653,22 +12701,22 @@
         <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U2" t="s">
+        <v>245</v>
+      </c>
+      <c r="V2" t="s">
         <v>246</v>
-      </c>
-      <c r="V2" t="s">
-        <v>247</v>
       </c>
       <c r="W2" s="3">
         <v>37377</v>
       </c>
       <c r="X2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>42310</v>
       </c>
@@ -12691,7 +12739,7 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I3">
         <v>86</v>
@@ -12715,19 +12763,19 @@
         <v>36</v>
       </c>
       <c r="T3" t="s">
+        <v>244</v>
+      </c>
+      <c r="U3" t="s">
         <v>245</v>
       </c>
-      <c r="U3" t="s">
-        <v>246</v>
-      </c>
       <c r="V3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W3" s="3">
         <v>42310</v>
       </c>
       <c r="X3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -12736,14 +12784,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -12766,7 +12814,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -12817,7 +12865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>37364</v>
       </c>
@@ -12840,13 +12888,13 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I2">
         <v>158</v>
       </c>
       <c r="M2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N2">
         <v>533</v>
@@ -12861,19 +12909,19 @@
         <v>34</v>
       </c>
       <c r="T2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U2" t="s">
         <v>252</v>
       </c>
-      <c r="U2" t="s">
-        <v>253</v>
-      </c>
       <c r="V2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W2" s="3">
         <v>37361</v>
       </c>
       <c r="X2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -12882,14 +12930,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -12912,7 +12960,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -12963,7 +13011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>40264</v>
       </c>
@@ -12986,13 +13034,13 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I2">
         <v>197</v>
       </c>
       <c r="M2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N2">
         <v>344</v>
@@ -13013,22 +13061,22 @@
         <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U2" t="s">
+        <v>263</v>
+      </c>
+      <c r="V2" t="s">
         <v>264</v>
-      </c>
-      <c r="V2" t="s">
-        <v>265</v>
       </c>
       <c r="W2" s="3">
         <v>40262</v>
       </c>
       <c r="X2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>41037</v>
       </c>
@@ -13051,7 +13099,7 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I3">
         <v>229</v>
@@ -13063,7 +13111,7 @@
         <v>41044</v>
       </c>
       <c r="P3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q3">
         <v>300</v>
@@ -13072,22 +13120,22 @@
         <v>53</v>
       </c>
       <c r="S3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W3" s="3">
         <v>41037</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>41399</v>
       </c>
@@ -13110,13 +13158,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I4">
         <v>379</v>
       </c>
       <c r="J4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -13131,7 +13179,7 @@
         <v>41400</v>
       </c>
       <c r="P4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q4">
         <v>1500</v>
@@ -13140,22 +13188,22 @@
         <v>68</v>
       </c>
       <c r="S4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T4" t="s">
+        <v>262</v>
+      </c>
+      <c r="U4" t="s">
         <v>263</v>
       </c>
-      <c r="U4" t="s">
-        <v>264</v>
-      </c>
       <c r="V4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="W4" s="3">
         <v>41400</v>
       </c>
       <c r="X4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -13164,14 +13212,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -13194,7 +13242,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -13245,7 +13293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>42395</v>
       </c>
@@ -13268,7 +13316,7 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I2">
         <v>339</v>
@@ -13292,19 +13340,19 @@
         <v>120</v>
       </c>
       <c r="T2" t="s">
+        <v>268</v>
+      </c>
+      <c r="U2" t="s">
         <v>269</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>270</v>
-      </c>
-      <c r="V2" t="s">
-        <v>271</v>
       </c>
       <c r="W2" s="3">
         <v>42395</v>
       </c>
       <c r="X2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -13313,14 +13361,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -13343,7 +13391,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -13394,7 +13442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>40872</v>
       </c>
@@ -13417,10 +13465,10 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -13429,10 +13477,10 @@
         <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O2" s="3">
         <v>40877</v>
@@ -13441,25 +13489,25 @@
         <v>45</v>
       </c>
       <c r="S2" t="s">
+        <v>283</v>
+      </c>
+      <c r="T2" t="s">
         <v>284</v>
       </c>
-      <c r="T2" t="s">
-        <v>285</v>
-      </c>
       <c r="U2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="W2" s="3">
         <v>40848</v>
       </c>
       <c r="X2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>41678</v>
       </c>
@@ -13482,13 +13530,13 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I3">
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N3">
         <v>163</v>
@@ -13497,7 +13545,7 @@
         <v>41687</v>
       </c>
       <c r="P3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q3">
         <v>1000</v>
@@ -13509,22 +13557,22 @@
         <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W3" s="3">
         <v>41676</v>
       </c>
       <c r="X3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>41704</v>
       </c>
@@ -13547,13 +13595,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I4">
         <v>272</v>
       </c>
       <c r="M4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N4">
         <v>497</v>
@@ -13562,7 +13610,7 @@
         <v>41707</v>
       </c>
       <c r="P4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q4">
         <v>1000</v>
@@ -13574,22 +13622,22 @@
         <v>114</v>
       </c>
       <c r="T4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W4" s="3">
         <v>41701</v>
       </c>
       <c r="X4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>42471</v>
       </c>
@@ -13612,10 +13660,10 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J5">
         <v>7</v>
@@ -13624,19 +13672,19 @@
         <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M5" t="s">
         <v>84</v>
       </c>
       <c r="N5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O5" s="3">
         <v>42472</v>
       </c>
       <c r="P5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q5">
         <v>50</v>
@@ -13648,22 +13696,22 @@
         <v>34</v>
       </c>
       <c r="T5" t="s">
+        <v>287</v>
+      </c>
+      <c r="U5" t="s">
         <v>288</v>
       </c>
-      <c r="U5" t="s">
-        <v>289</v>
-      </c>
       <c r="V5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="W5" s="3">
         <v>42472</v>
       </c>
       <c r="X5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>42484</v>
       </c>
@@ -13686,7 +13734,7 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I6">
         <v>356</v>
@@ -13716,19 +13764,19 @@
         <v>34</v>
       </c>
       <c r="T6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="W6" s="3">
         <v>42480</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>42491</v>
       </c>
@@ -13748,10 +13796,10 @@
         <v>-1.3950485805663</v>
       </c>
       <c r="G7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I7">
         <v>358</v>
@@ -13769,7 +13817,7 @@
         <v>42492</v>
       </c>
       <c r="P7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q7">
         <v>300</v>
@@ -13781,19 +13829,19 @@
         <v>34</v>
       </c>
       <c r="T7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W7" s="3">
         <v>42492</v>
       </c>
       <c r="X7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/python/IMPACT_DB/merged_24hr_Rainfall.xlsx
+++ b/python/IMPACT_DB/merged_24hr_Rainfall.xlsx
@@ -637,9 +637,6 @@
     <t>yesterday morning</t>
   </si>
   <si>
-    <t>yesterday’s early morning</t>
-  </si>
-  <si>
     <t>morning yesterday</t>
   </si>
   <si>
@@ -2252,6 +2249,9 @@
   </si>
   <si>
     <t>Chang ombe B , ward , Temeke , District , Dar es Salaam</t>
+  </si>
+  <si>
+    <t>yesterday s early morning</t>
   </si>
 </sst>
 </file>
@@ -2691,7 +2691,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2765,7 +2765,7 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I2">
         <v>151</v>
@@ -2824,7 +2824,7 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I3">
         <v>173</v>
@@ -2886,7 +2886,7 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I4">
         <v>174</v>
@@ -2945,7 +2945,7 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I5">
         <v>188</v>
@@ -3010,7 +3010,7 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I6">
         <v>14</v>
@@ -3075,7 +3075,7 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I7">
         <v>14</v>
@@ -3140,7 +3140,7 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I8">
         <v>225</v>
@@ -3202,7 +3202,7 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I9">
         <v>38</v>
@@ -3261,7 +3261,7 @@
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I10">
         <v>39</v>
@@ -3320,7 +3320,7 @@
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I11">
         <v>331</v>
@@ -3404,7 +3404,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -3478,13 +3478,13 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I2">
         <v>166</v>
       </c>
       <c r="M2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N2">
         <v>317</v>
@@ -3499,13 +3499,13 @@
         <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U2" t="s">
+        <v>304</v>
+      </c>
+      <c r="V2" t="s">
         <v>305</v>
-      </c>
-      <c r="V2" t="s">
-        <v>306</v>
       </c>
       <c r="W2" s="3">
         <v>38319</v>
@@ -3537,13 +3537,13 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I3">
         <v>320</v>
       </c>
       <c r="M3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N3">
         <v>2048</v>
@@ -3558,19 +3558,19 @@
         <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="W3" s="3">
         <v>42125</v>
       </c>
       <c r="X3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
@@ -3596,13 +3596,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I4">
         <v>341</v>
       </c>
       <c r="M4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N4">
         <v>406</v>
@@ -3617,19 +3617,19 @@
         <v>34</v>
       </c>
       <c r="T4" t="s">
+        <v>303</v>
+      </c>
+      <c r="U4" t="s">
         <v>304</v>
       </c>
-      <c r="U4" t="s">
-        <v>305</v>
-      </c>
       <c r="V4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W4" s="3">
         <v>42407</v>
       </c>
       <c r="X4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3668,7 +3668,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -3742,19 +3742,19 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J2" t="s">
         <v>311</v>
-      </c>
-      <c r="J2" t="s">
-        <v>312</v>
       </c>
       <c r="K2">
         <v>80</v>
       </c>
       <c r="N2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O2" s="3">
         <v>39536</v>
@@ -3766,16 +3766,16 @@
         <v>31</v>
       </c>
       <c r="S2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U2" t="s">
+        <v>325</v>
+      </c>
+      <c r="V2" t="s">
         <v>326</v>
-      </c>
-      <c r="V2" t="s">
-        <v>327</v>
       </c>
       <c r="W2" s="3">
         <v>39536</v>
@@ -3807,13 +3807,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I3">
         <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N3">
         <v>306</v>
@@ -3822,7 +3822,7 @@
         <v>40555</v>
       </c>
       <c r="P3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q3">
         <v>704</v>
@@ -3831,22 +3831,22 @@
         <v>43</v>
       </c>
       <c r="S3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="W3" s="3">
         <v>40555</v>
       </c>
       <c r="X3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
@@ -3872,13 +3872,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I4">
         <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N4">
         <v>377</v>
@@ -3893,10 +3893,10 @@
         <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V4" t="s">
         <v>56</v>
@@ -3931,7 +3931,7 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I5">
         <v>272</v>
@@ -3952,22 +3952,22 @@
         <v>77</v>
       </c>
       <c r="S5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W5" s="3">
         <v>41701</v>
       </c>
       <c r="X5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -3993,13 +3993,13 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I6">
         <v>348</v>
       </c>
       <c r="M6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N6">
         <v>256</v>
@@ -4020,13 +4020,13 @@
         <v>34</v>
       </c>
       <c r="T6" t="s">
+        <v>324</v>
+      </c>
+      <c r="U6" t="s">
         <v>325</v>
       </c>
-      <c r="U6" t="s">
-        <v>326</v>
-      </c>
       <c r="V6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W6" s="3">
         <v>42415</v>
@@ -4071,7 +4071,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -4145,13 +4145,13 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I2">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N2">
         <v>209</v>
@@ -4160,7 +4160,7 @@
         <v>40894</v>
       </c>
       <c r="P2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q2">
         <v>30</v>
@@ -4172,19 +4172,19 @@
         <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U2" t="s">
+        <v>342</v>
+      </c>
+      <c r="V2" t="s">
         <v>343</v>
-      </c>
-      <c r="V2" t="s">
-        <v>344</v>
       </c>
       <c r="W2" s="3">
         <v>40894</v>
       </c>
       <c r="X2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -4210,13 +4210,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I3">
         <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N3">
         <v>290</v>
@@ -4225,7 +4225,7 @@
         <v>41247</v>
       </c>
       <c r="P3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q3">
         <v>100</v>
@@ -4237,13 +4237,13 @@
         <v>117</v>
       </c>
       <c r="T3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="W3" s="3">
         <v>41247</v>
@@ -4275,13 +4275,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I4">
         <v>53</v>
       </c>
       <c r="M4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N4">
         <v>319</v>
@@ -4290,7 +4290,7 @@
         <v>41721</v>
       </c>
       <c r="P4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -4299,13 +4299,13 @@
         <v>79</v>
       </c>
       <c r="S4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="T4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V4" t="s">
         <v>158</v>
@@ -4340,13 +4340,13 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I5">
         <v>120</v>
       </c>
       <c r="M5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N5">
         <v>208</v>
@@ -4361,13 +4361,13 @@
         <v>38</v>
       </c>
       <c r="T5" t="s">
+        <v>341</v>
+      </c>
+      <c r="U5" t="s">
         <v>342</v>
       </c>
-      <c r="U5" t="s">
-        <v>343</v>
-      </c>
       <c r="V5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="W5" s="3">
         <v>42696</v>
@@ -4409,7 +4409,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -4483,13 +4483,13 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I2">
         <v>162</v>
       </c>
       <c r="M2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N2">
         <v>269</v>
@@ -4504,19 +4504,19 @@
         <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U2" t="s">
+        <v>361</v>
+      </c>
+      <c r="V2" t="s">
         <v>362</v>
-      </c>
-      <c r="V2" t="s">
-        <v>363</v>
       </c>
       <c r="W2" s="3">
         <v>37644</v>
       </c>
       <c r="X2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -4539,16 +4539,16 @@
         <v>-1.4186864182682699</v>
       </c>
       <c r="G3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I3">
         <v>162</v>
       </c>
       <c r="M3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N3">
         <v>269</v>
@@ -4563,19 +4563,19 @@
         <v>38</v>
       </c>
       <c r="T3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U3" t="s">
+        <v>361</v>
+      </c>
+      <c r="V3" t="s">
         <v>362</v>
-      </c>
-      <c r="V3" t="s">
-        <v>363</v>
       </c>
       <c r="W3" s="3">
         <v>37654</v>
       </c>
       <c r="X3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
@@ -4601,13 +4601,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I4">
         <v>288</v>
       </c>
       <c r="M4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N4">
         <v>403</v>
@@ -4616,7 +4616,7 @@
         <v>41759</v>
       </c>
       <c r="P4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q4">
         <v>20000</v>
@@ -4628,19 +4628,19 @@
         <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="V4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W4" s="3">
         <v>41730</v>
       </c>
       <c r="X4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -4666,10 +4666,10 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J5" t="s">
         <v>78</v>
@@ -4678,13 +4678,13 @@
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O5" s="3">
         <v>41753</v>
@@ -4696,10 +4696,10 @@
         <v>121</v>
       </c>
       <c r="T5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="V5" t="s">
         <v>163</v>
@@ -4708,7 +4708,7 @@
         <v>41748</v>
       </c>
       <c r="X5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -4734,7 +4734,7 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I6">
         <v>59</v>
@@ -4758,19 +4758,19 @@
         <v>121</v>
       </c>
       <c r="T6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="V6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W6" s="3">
         <v>41756</v>
       </c>
       <c r="X6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
@@ -4796,7 +4796,7 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I7">
         <v>111</v>
@@ -4808,7 +4808,7 @@
         <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N7">
         <v>341</v>
@@ -4817,7 +4817,7 @@
         <v>42478</v>
       </c>
       <c r="P7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q7">
         <v>305</v>
@@ -4829,13 +4829,13 @@
         <v>34</v>
       </c>
       <c r="T7" t="s">
+        <v>360</v>
+      </c>
+      <c r="U7" t="s">
         <v>361</v>
       </c>
-      <c r="U7" t="s">
-        <v>362</v>
-      </c>
       <c r="V7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W7" s="3">
         <v>42472</v>
@@ -4880,7 +4880,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -4954,7 +4954,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I2">
         <v>172</v>
@@ -4966,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N2">
         <v>268</v>
@@ -4981,13 +4981,13 @@
         <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="U2" t="s">
+        <v>415</v>
+      </c>
+      <c r="V2" t="s">
         <v>416</v>
-      </c>
-      <c r="V2" t="s">
-        <v>417</v>
       </c>
       <c r="W2" s="3">
         <v>38762</v>
@@ -5019,16 +5019,16 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O3" s="3">
         <v>40178</v>
@@ -5040,19 +5040,19 @@
         <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="W3" s="3">
         <v>40148</v>
       </c>
       <c r="X3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
@@ -5078,7 +5078,7 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I4">
         <v>204</v>
@@ -5096,22 +5096,22 @@
         <v>37</v>
       </c>
       <c r="S4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W4" s="3">
         <v>40179</v>
       </c>
       <c r="X4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -5134,22 +5134,22 @@
         <v>-1.1192150630995601</v>
       </c>
       <c r="G5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I5">
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K5">
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N5">
         <v>819</v>
@@ -5164,19 +5164,19 @@
         <v>34</v>
       </c>
       <c r="T5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="W5" s="3">
         <v>40179</v>
       </c>
       <c r="X5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -5202,7 +5202,7 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I6">
         <v>259</v>
@@ -5220,19 +5220,19 @@
         <v>34</v>
       </c>
       <c r="T6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W6" s="3">
         <v>40538</v>
       </c>
       <c r="X6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
@@ -5258,13 +5258,13 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I7">
         <v>322</v>
       </c>
       <c r="M7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N7">
         <v>513</v>
@@ -5273,7 +5273,7 @@
         <v>41666</v>
       </c>
       <c r="P7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q7">
         <v>300</v>
@@ -5285,13 +5285,13 @@
         <v>34</v>
       </c>
       <c r="T7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W7" s="3">
         <v>41659</v>
@@ -5323,10 +5323,10 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -5335,19 +5335,19 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O8" s="3">
         <v>41660</v>
       </c>
       <c r="P8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q8">
         <v>10000</v>
@@ -5359,19 +5359,19 @@
         <v>34</v>
       </c>
       <c r="T8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="U8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="W8" s="3">
         <v>41660</v>
       </c>
       <c r="X8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
@@ -5397,16 +5397,16 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O9" s="3">
         <v>41668</v>
@@ -5424,13 +5424,13 @@
         <v>114</v>
       </c>
       <c r="T9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="W9" s="3">
         <v>41668</v>
@@ -5462,13 +5462,13 @@
         <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I10">
         <v>286</v>
       </c>
       <c r="M10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N10">
         <v>1279</v>
@@ -5477,7 +5477,7 @@
         <v>41698</v>
       </c>
       <c r="P10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q10">
         <v>12000</v>
@@ -5489,19 +5489,19 @@
         <v>34</v>
       </c>
       <c r="T10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="W10" s="3">
         <v>41671</v>
       </c>
       <c r="X10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.45">
@@ -5527,10 +5527,10 @@
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -5539,10 +5539,10 @@
         <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O11" s="3">
         <v>41743</v>
@@ -5557,13 +5557,13 @@
         <v>88</v>
       </c>
       <c r="S11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="T11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V11" t="s">
         <v>162</v>
@@ -5572,7 +5572,7 @@
         <v>41739</v>
       </c>
       <c r="X11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
@@ -5598,7 +5598,7 @@
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I12">
         <v>60</v>
@@ -5616,16 +5616,16 @@
         <v>93</v>
       </c>
       <c r="S12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="U12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="W12" s="3">
         <v>41753</v>
@@ -5657,7 +5657,7 @@
         <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I13">
         <v>97</v>
@@ -5672,7 +5672,7 @@
         <v>42369</v>
       </c>
       <c r="P13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q13">
         <v>2857</v>
@@ -5684,19 +5684,19 @@
         <v>34</v>
       </c>
       <c r="T13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="W13" s="3">
         <v>42359</v>
       </c>
       <c r="X13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.45">
@@ -5722,13 +5722,13 @@
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I14">
         <v>352</v>
       </c>
       <c r="M14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N14">
         <v>233</v>
@@ -5743,19 +5743,19 @@
         <v>34</v>
       </c>
       <c r="T14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="W14" s="3">
         <v>42370</v>
       </c>
       <c r="X14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.45">
@@ -5781,13 +5781,13 @@
         <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I15">
         <v>105</v>
       </c>
       <c r="M15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N15">
         <v>256</v>
@@ -5796,7 +5796,7 @@
         <v>42409</v>
       </c>
       <c r="P15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q15">
         <v>3000</v>
@@ -5805,16 +5805,16 @@
         <v>129</v>
       </c>
       <c r="S15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T15" t="s">
+        <v>414</v>
+      </c>
+      <c r="U15" t="s">
         <v>415</v>
       </c>
-      <c r="U15" t="s">
-        <v>416</v>
-      </c>
       <c r="V15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="W15" s="3">
         <v>42403</v>
@@ -5846,10 +5846,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -5858,10 +5858,10 @@
         <v>5</v>
       </c>
       <c r="M16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O16" s="3">
         <v>42489</v>
@@ -5879,13 +5879,13 @@
         <v>121</v>
       </c>
       <c r="T16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="U16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="W16" s="3">
         <v>42482</v>
@@ -5930,7 +5930,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -6004,7 +6004,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I2">
         <v>9</v>
@@ -6025,19 +6025,19 @@
         <v>35</v>
       </c>
       <c r="T2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U2" t="s">
+        <v>455</v>
+      </c>
+      <c r="V2" t="s">
         <v>456</v>
-      </c>
-      <c r="V2" t="s">
-        <v>457</v>
       </c>
       <c r="W2" s="3">
         <v>40831</v>
       </c>
       <c r="X2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -6063,13 +6063,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I3">
         <v>240</v>
       </c>
       <c r="M3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N3">
         <v>216</v>
@@ -6084,19 +6084,19 @@
         <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="W3" s="3">
         <v>41288</v>
       </c>
       <c r="X3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
@@ -6122,22 +6122,22 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M4" t="s">
         <v>89</v>
       </c>
       <c r="N4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O4" s="3">
         <v>41305</v>
       </c>
       <c r="P4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q4">
         <v>50</v>
@@ -6149,13 +6149,13 @@
         <v>120</v>
       </c>
       <c r="T4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="U4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="W4" s="3">
         <v>41305</v>
@@ -6187,13 +6187,13 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I5">
         <v>251</v>
       </c>
       <c r="M5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N5">
         <v>289</v>
@@ -6202,7 +6202,7 @@
         <v>41644</v>
       </c>
       <c r="P5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R5">
         <v>69</v>
@@ -6211,19 +6211,19 @@
         <v>115</v>
       </c>
       <c r="T5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="W5" s="3">
         <v>41638</v>
       </c>
       <c r="X5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -6249,13 +6249,13 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I6">
         <v>96</v>
       </c>
       <c r="M6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N6">
         <v>288</v>
@@ -6264,7 +6264,7 @@
         <v>42377</v>
       </c>
       <c r="P6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q6">
         <v>2000</v>
@@ -6276,13 +6276,13 @@
         <v>38</v>
       </c>
       <c r="T6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="U6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="W6" s="3">
         <v>42370</v>
@@ -6311,13 +6311,13 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I7">
         <v>102</v>
       </c>
       <c r="M7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N7">
         <v>180</v>
@@ -6332,13 +6332,13 @@
         <v>38</v>
       </c>
       <c r="T7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="W7" s="3">
         <v>42396</v>
@@ -6370,7 +6370,7 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I8">
         <v>107</v>
@@ -6382,7 +6382,7 @@
         <v>42408</v>
       </c>
       <c r="P8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q8">
         <v>302</v>
@@ -6391,22 +6391,22 @@
         <v>130</v>
       </c>
       <c r="S8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="T8" t="s">
+        <v>454</v>
+      </c>
+      <c r="U8" t="s">
         <v>455</v>
       </c>
-      <c r="U8" t="s">
-        <v>456</v>
-      </c>
       <c r="V8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W8" s="3">
         <v>42406</v>
       </c>
       <c r="X8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -6445,7 +6445,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -6519,22 +6519,22 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I2">
         <v>150</v>
       </c>
       <c r="J2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K2">
         <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N2">
         <v>282</v>
@@ -6543,7 +6543,7 @@
         <v>36861</v>
       </c>
       <c r="P2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q2">
         <v>300</v>
@@ -6555,13 +6555,13 @@
         <v>113</v>
       </c>
       <c r="T2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="U2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="W2" s="3">
         <v>36861</v>
@@ -6593,19 +6593,19 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I3">
         <v>164</v>
       </c>
       <c r="J3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K3">
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N3">
         <v>603</v>
@@ -6620,13 +6620,13 @@
         <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="U3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="W3" s="3">
         <v>38092</v>
@@ -6658,13 +6658,13 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I4">
         <v>178</v>
       </c>
       <c r="M4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N4">
         <v>315</v>
@@ -6685,19 +6685,19 @@
         <v>122</v>
       </c>
       <c r="T4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="U4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W4" s="3">
         <v>39052</v>
       </c>
       <c r="X4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -6723,16 +6723,16 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O5" s="3">
         <v>40861</v>
@@ -6741,22 +6741,22 @@
         <v>46</v>
       </c>
       <c r="S5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="T5" t="s">
+        <v>486</v>
+      </c>
+      <c r="U5" t="s">
         <v>487</v>
       </c>
-      <c r="U5" t="s">
-        <v>488</v>
-      </c>
       <c r="V5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W5" s="3">
         <v>40861</v>
       </c>
       <c r="X5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -6782,7 +6782,7 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I6">
         <v>63</v>
@@ -6803,22 +6803,22 @@
         <v>96</v>
       </c>
       <c r="S6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="T6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="U6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W6" s="3">
         <v>41866</v>
       </c>
       <c r="X6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
@@ -6844,7 +6844,7 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I7">
         <v>294</v>
@@ -6868,19 +6868,19 @@
         <v>115</v>
       </c>
       <c r="T7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="U7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W7" s="3">
         <v>42000</v>
       </c>
       <c r="X7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
@@ -6906,10 +6906,10 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -6918,10 +6918,10 @@
         <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O8" s="3">
         <v>42310</v>
@@ -6930,22 +6930,22 @@
         <v>111</v>
       </c>
       <c r="S8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="U8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W8" s="3">
         <v>42310</v>
       </c>
       <c r="X8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
@@ -6971,16 +6971,16 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I9">
         <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N9">
         <v>439</v>
@@ -6995,19 +6995,19 @@
         <v>117</v>
       </c>
       <c r="T9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="U9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="W9" s="3">
         <v>42359</v>
       </c>
       <c r="X9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
@@ -7033,7 +7033,7 @@
         <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I10">
         <v>98</v>
@@ -7057,13 +7057,13 @@
         <v>38</v>
       </c>
       <c r="T10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="U10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="W10" s="3">
         <v>42383</v>
@@ -7095,16 +7095,16 @@
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I11">
         <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N11">
         <v>240</v>
@@ -7113,7 +7113,7 @@
         <v>42680</v>
       </c>
       <c r="P11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q11">
         <v>590</v>
@@ -7125,19 +7125,19 @@
         <v>38</v>
       </c>
       <c r="T11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="U11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W11" s="3">
         <v>42679</v>
       </c>
       <c r="X11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -7173,7 +7173,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -7260,7 +7260,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -7334,19 +7334,19 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I2">
         <v>159</v>
       </c>
       <c r="J2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K2">
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N2">
         <v>497</v>
@@ -7361,19 +7361,19 @@
         <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="U2" t="s">
+        <v>519</v>
+      </c>
+      <c r="V2" t="s">
         <v>520</v>
-      </c>
-      <c r="V2" t="s">
-        <v>521</v>
       </c>
       <c r="W2" s="3">
         <v>37316</v>
       </c>
       <c r="X2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -7399,13 +7399,13 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I3">
         <v>157</v>
       </c>
       <c r="M3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N3">
         <v>347</v>
@@ -7420,10 +7420,10 @@
         <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="U3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="V3" t="s">
         <v>147</v>
@@ -7432,7 +7432,7 @@
         <v>37365</v>
       </c>
       <c r="X3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
@@ -7458,13 +7458,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I4">
         <v>175</v>
       </c>
       <c r="M4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N4">
         <v>392</v>
@@ -7479,13 +7479,13 @@
         <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="U4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="V4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="W4" s="3">
         <v>38783</v>
@@ -7517,13 +7517,13 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I5">
         <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N5">
         <v>311</v>
@@ -7538,10 +7538,10 @@
         <v>37</v>
       </c>
       <c r="T5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="U5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="V5" t="s">
         <v>161</v>
@@ -7576,16 +7576,16 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M6" t="s">
+        <v>512</v>
+      </c>
+      <c r="N6" t="s">
         <v>513</v>
-      </c>
-      <c r="N6" t="s">
-        <v>514</v>
       </c>
       <c r="O6" s="3">
         <v>42400</v>
@@ -7597,19 +7597,19 @@
         <v>34</v>
       </c>
       <c r="T6" t="s">
+        <v>518</v>
+      </c>
+      <c r="U6" t="s">
         <v>519</v>
       </c>
-      <c r="U6" t="s">
-        <v>520</v>
-      </c>
       <c r="V6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="W6" s="3">
         <v>42387</v>
       </c>
       <c r="X6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -7648,7 +7648,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -7722,16 +7722,16 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I2">
         <v>92</v>
       </c>
       <c r="L2" t="s">
+        <v>526</v>
+      </c>
+      <c r="M2" t="s">
         <v>527</v>
-      </c>
-      <c r="M2" t="s">
-        <v>528</v>
       </c>
       <c r="N2">
         <v>324</v>
@@ -7740,7 +7740,7 @@
         <v>42348</v>
       </c>
       <c r="P2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q2">
         <v>2450</v>
@@ -7752,13 +7752,13 @@
         <v>117</v>
       </c>
       <c r="T2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="U2" t="s">
+        <v>536</v>
+      </c>
+      <c r="V2" t="s">
         <v>537</v>
-      </c>
-      <c r="V2" t="s">
-        <v>538</v>
       </c>
       <c r="W2" s="3">
         <v>42341</v>
@@ -7787,13 +7787,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I3">
         <v>364</v>
       </c>
       <c r="M3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N3">
         <v>334</v>
@@ -7802,7 +7802,7 @@
         <v>42629</v>
       </c>
       <c r="P3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q3">
         <v>50</v>
@@ -7814,13 +7814,13 @@
         <v>35</v>
       </c>
       <c r="T3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="V3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W3" s="3">
         <v>42629</v>
@@ -7852,13 +7852,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I4">
         <v>366</v>
       </c>
       <c r="M4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N4">
         <v>355</v>
@@ -7867,7 +7867,7 @@
         <v>42630</v>
       </c>
       <c r="P4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q4">
         <v>45</v>
@@ -7876,22 +7876,22 @@
         <v>142</v>
       </c>
       <c r="S4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T4" t="s">
+        <v>535</v>
+      </c>
+      <c r="U4" t="s">
         <v>536</v>
       </c>
-      <c r="U4" t="s">
-        <v>537</v>
-      </c>
       <c r="V4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="W4" s="3">
         <v>42630</v>
       </c>
       <c r="X4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -7903,8 +7903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7935,7 +7935,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -8009,7 +8009,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I2">
         <v>33</v>
@@ -8071,7 +8071,7 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I3" t="s">
         <v>67</v>
@@ -8139,7 +8139,7 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I4">
         <v>119</v>
@@ -8169,7 +8169,7 @@
         <v>42697</v>
       </c>
       <c r="X4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -8195,7 +8195,7 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I5">
         <v>191</v>
@@ -8254,7 +8254,7 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I6">
         <v>342</v>
@@ -8272,7 +8272,7 @@
         <v>34</v>
       </c>
       <c r="T6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="U6" t="s">
         <v>131</v>
@@ -8310,7 +8310,7 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I7">
         <v>58</v>
@@ -8372,7 +8372,7 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I8">
         <v>156</v>
@@ -8434,7 +8434,7 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I9">
         <v>40</v>
@@ -8490,7 +8490,7 @@
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I10">
         <v>246</v>
@@ -8546,7 +8546,7 @@
         <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I11">
         <v>287</v>
@@ -8605,7 +8605,7 @@
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I12">
         <v>165</v>
@@ -8664,7 +8664,7 @@
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I13">
         <v>186</v>
@@ -8723,7 +8723,7 @@
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I14">
         <v>77</v>
@@ -8791,7 +8791,7 @@
         <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I15" t="s">
         <v>65</v>
@@ -8856,7 +8856,7 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I16">
         <v>67</v>
@@ -8918,7 +8918,7 @@
         <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I17">
         <v>51</v>
@@ -8974,7 +8974,7 @@
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I18" t="s">
         <v>73</v>
@@ -9033,7 +9033,7 @@
         <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I19">
         <v>100</v>
@@ -9066,7 +9066,7 @@
         <v>42390</v>
       </c>
       <c r="X19" t="s">
-        <v>197</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.45">
@@ -9092,7 +9092,7 @@
         <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I20" t="s">
         <v>66</v>
@@ -9166,7 +9166,7 @@
         <v>23</v>
       </c>
       <c r="H21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I21">
         <v>52</v>
@@ -9225,7 +9225,7 @@
         <v>23</v>
       </c>
       <c r="H22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I22">
         <v>52</v>
@@ -9284,7 +9284,7 @@
         <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I23">
         <v>54</v>
@@ -9349,7 +9349,7 @@
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I24">
         <v>76</v>
@@ -9411,7 +9411,7 @@
         <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I25" t="s">
         <v>71</v>
@@ -9482,7 +9482,7 @@
         <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I26" t="s">
         <v>72</v>
@@ -9547,7 +9547,7 @@
         <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I27" t="s">
         <v>70</v>
@@ -9618,7 +9618,7 @@
         <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I28">
         <v>72</v>
@@ -9677,7 +9677,7 @@
         <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I29">
         <v>170</v>
@@ -9736,7 +9736,7 @@
         <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I30" t="s">
         <v>68</v>
@@ -9804,7 +9804,7 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I31" t="s">
         <v>69</v>
@@ -9869,7 +9869,7 @@
         <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I32">
         <v>278</v>
@@ -9934,7 +9934,7 @@
         <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I33">
         <v>199</v>
@@ -10012,7 +10012,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -10086,7 +10086,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I2">
         <v>163</v>
@@ -10110,19 +10110,19 @@
         <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="U2" t="s">
+        <v>544</v>
+      </c>
+      <c r="V2" t="s">
         <v>545</v>
-      </c>
-      <c r="V2" t="s">
-        <v>546</v>
       </c>
       <c r="W2" s="3">
         <v>38045</v>
       </c>
       <c r="X2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -10148,7 +10148,7 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I3">
         <v>167</v>
@@ -10160,7 +10160,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N3">
         <v>534</v>
@@ -10175,19 +10175,19 @@
         <v>115</v>
       </c>
       <c r="T3" t="s">
+        <v>543</v>
+      </c>
+      <c r="U3" t="s">
         <v>544</v>
       </c>
-      <c r="U3" t="s">
-        <v>545</v>
-      </c>
       <c r="V3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="W3" s="3">
         <v>38353</v>
       </c>
       <c r="X3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -10226,7 +10226,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -10300,13 +10300,13 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I2">
         <v>244</v>
       </c>
       <c r="M2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N2">
         <v>449</v>
@@ -10321,19 +10321,19 @@
         <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U2" t="s">
+        <v>557</v>
+      </c>
+      <c r="V2" t="s">
         <v>558</v>
-      </c>
-      <c r="V2" t="s">
-        <v>559</v>
       </c>
       <c r="W2" s="3">
         <v>41377</v>
       </c>
       <c r="X2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -10356,13 +10356,13 @@
         <v>-1.8059367051817901</v>
       </c>
       <c r="G3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J3">
         <v>47</v>
@@ -10371,19 +10371,19 @@
         <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M3" t="s">
+        <v>550</v>
+      </c>
+      <c r="N3" t="s">
         <v>551</v>
-      </c>
-      <c r="N3" t="s">
-        <v>552</v>
       </c>
       <c r="O3" s="3">
         <v>42066</v>
       </c>
       <c r="P3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Q3">
         <v>3500</v>
@@ -10392,22 +10392,22 @@
         <v>100</v>
       </c>
       <c r="S3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="T3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="W3" s="3">
         <v>42066</v>
       </c>
       <c r="X3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
@@ -10433,7 +10433,7 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I4">
         <v>324</v>
@@ -10463,13 +10463,13 @@
         <v>34</v>
       </c>
       <c r="T4" t="s">
+        <v>556</v>
+      </c>
+      <c r="U4" t="s">
         <v>557</v>
       </c>
-      <c r="U4" t="s">
-        <v>558</v>
-      </c>
       <c r="V4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="W4" s="3">
         <v>42268</v>
@@ -10514,7 +10514,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -10588,13 +10588,13 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I2">
         <v>244</v>
       </c>
       <c r="M2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N2">
         <v>449</v>
@@ -10609,19 +10609,19 @@
         <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="V2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="W2" s="3">
         <v>41377</v>
       </c>
       <c r="X2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -10660,7 +10660,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -10734,7 +10734,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I2">
         <v>34</v>
@@ -10758,19 +10758,19 @@
         <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U2" t="s">
+        <v>568</v>
+      </c>
+      <c r="V2" t="s">
         <v>569</v>
-      </c>
-      <c r="V2" t="s">
-        <v>570</v>
       </c>
       <c r="W2" s="3">
         <v>41272</v>
       </c>
       <c r="X2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -10796,13 +10796,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I3">
         <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N3">
         <v>586</v>
@@ -10814,22 +10814,22 @@
         <v>57</v>
       </c>
       <c r="S3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T3" t="s">
+        <v>567</v>
+      </c>
+      <c r="U3" t="s">
         <v>568</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>569</v>
-      </c>
-      <c r="V3" t="s">
-        <v>570</v>
       </c>
       <c r="W3" s="3">
         <v>41275</v>
       </c>
       <c r="X3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
@@ -10855,16 +10855,16 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I4">
         <v>239</v>
       </c>
       <c r="L4" t="s">
+        <v>564</v>
+      </c>
+      <c r="M4" t="s">
         <v>565</v>
-      </c>
-      <c r="M4" t="s">
-        <v>566</v>
       </c>
       <c r="N4">
         <v>300</v>
@@ -10879,19 +10879,19 @@
         <v>38</v>
       </c>
       <c r="T4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="U4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="V4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="W4" s="3">
         <v>41303</v>
       </c>
       <c r="X4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -10930,7 +10930,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -11004,7 +11004,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I2">
         <v>66</v>
@@ -11037,19 +11037,19 @@
         <v>115</v>
       </c>
       <c r="T2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="U2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="V2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W2" s="3">
         <v>42000</v>
       </c>
       <c r="X2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -11075,13 +11075,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I3">
         <v>330</v>
       </c>
       <c r="M3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N3">
         <v>483</v>
@@ -11090,7 +11090,7 @@
         <v>42357</v>
       </c>
       <c r="P3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q3">
         <v>300</v>
@@ -11102,13 +11102,13 @@
         <v>38</v>
       </c>
       <c r="T3" t="s">
+        <v>575</v>
+      </c>
+      <c r="U3" t="s">
         <v>576</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>577</v>
-      </c>
-      <c r="V3" t="s">
-        <v>578</v>
       </c>
       <c r="W3" s="3">
         <v>42352</v>
@@ -11153,7 +11153,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -11227,13 +11227,13 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I2">
         <v>167</v>
       </c>
       <c r="M2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N2">
         <v>534</v>
@@ -11245,22 +11245,22 @@
         <v>21</v>
       </c>
       <c r="S2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="T2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="U2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="V2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="W2" s="3">
         <v>38353</v>
       </c>
       <c r="X2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -11286,7 +11286,7 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I3">
         <v>6</v>
@@ -11301,7 +11301,7 @@
         <v>40301</v>
       </c>
       <c r="P3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Q3">
         <v>200</v>
@@ -11310,16 +11310,16 @@
         <v>41</v>
       </c>
       <c r="S3" t="s">
+        <v>582</v>
+      </c>
+      <c r="T3" t="s">
+        <v>584</v>
+      </c>
+      <c r="U3" t="s">
         <v>583</v>
       </c>
-      <c r="T3" t="s">
-        <v>585</v>
-      </c>
-      <c r="U3" t="s">
-        <v>584</v>
-      </c>
       <c r="V3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="W3" s="3">
         <v>40294</v>
@@ -11348,7 +11348,7 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I4">
         <v>268</v>
@@ -11363,7 +11363,7 @@
         <v>41676</v>
       </c>
       <c r="P4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="Q4">
         <v>400</v>
@@ -11375,19 +11375,19 @@
         <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="U4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="V4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="W4" s="3">
         <v>41676</v>
       </c>
       <c r="X4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -11426,7 +11426,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -11500,10 +11500,10 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -11512,19 +11512,19 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
+        <v>591</v>
+      </c>
+      <c r="M2" t="s">
         <v>592</v>
       </c>
-      <c r="M2" t="s">
-        <v>593</v>
-      </c>
       <c r="N2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O2" s="3">
         <v>38460</v>
       </c>
       <c r="P2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="Q2">
         <v>16000</v>
@@ -11536,19 +11536,19 @@
         <v>115</v>
       </c>
       <c r="T2" t="s">
+        <v>597</v>
+      </c>
+      <c r="U2" t="s">
         <v>598</v>
       </c>
-      <c r="U2" t="s">
-        <v>599</v>
-      </c>
       <c r="V2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W2" s="3">
         <v>38459</v>
       </c>
       <c r="X2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -11574,7 +11574,7 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I3">
         <v>309</v>
@@ -11601,19 +11601,19 @@
         <v>121</v>
       </c>
       <c r="T3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="V3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="W3" s="3">
         <v>42131</v>
       </c>
       <c r="X3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
@@ -11639,28 +11639,28 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O4" s="3">
         <v>42478</v>
       </c>
       <c r="P4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q4">
         <v>100</v>
@@ -11672,19 +11672,19 @@
         <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="U4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="V4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W4" s="3">
         <v>42478</v>
       </c>
       <c r="X4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -11723,7 +11723,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -11797,13 +11797,13 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I2">
         <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K2">
         <v>40</v>
@@ -11821,10 +11821,10 @@
         <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V2" t="s">
         <v>160</v>
@@ -11833,7 +11833,7 @@
         <v>41736</v>
       </c>
       <c r="X2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -11872,7 +11872,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -11946,13 +11946,13 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I2">
         <v>158</v>
       </c>
       <c r="M2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N2">
         <v>533</v>
@@ -11967,13 +11967,13 @@
         <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W2" s="3">
         <v>37361</v>
@@ -12005,13 +12005,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I3">
         <v>204</v>
       </c>
       <c r="M3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N3">
         <v>1162</v>
@@ -12026,19 +12026,19 @@
         <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W3" s="3">
         <v>40179</v>
       </c>
       <c r="X3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
@@ -12064,13 +12064,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I4">
         <v>204</v>
       </c>
       <c r="M4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N4">
         <v>1162</v>
@@ -12091,19 +12091,19 @@
         <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W4" s="3">
         <v>40179</v>
       </c>
       <c r="X4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -12129,13 +12129,13 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I5">
         <v>213</v>
       </c>
       <c r="M5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N5">
         <v>218</v>
@@ -12144,7 +12144,7 @@
         <v>40896</v>
       </c>
       <c r="P5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q5">
         <v>1500</v>
@@ -12153,16 +12153,16 @@
         <v>50</v>
       </c>
       <c r="S5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W5" s="3">
         <v>40896</v>
@@ -12194,13 +12194,13 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I6">
         <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -12215,13 +12215,13 @@
         <v>83</v>
       </c>
       <c r="S6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V6" t="s">
         <v>159</v>
@@ -12256,13 +12256,13 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I7">
         <v>336</v>
       </c>
       <c r="M7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N7">
         <v>628</v>
@@ -12271,7 +12271,7 @@
         <v>42370</v>
       </c>
       <c r="P7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q7">
         <v>800</v>
@@ -12280,13 +12280,13 @@
         <v>118</v>
       </c>
       <c r="S7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V7" t="s">
         <v>172</v>
@@ -12295,7 +12295,7 @@
         <v>42370</v>
       </c>
       <c r="X7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
@@ -12321,10 +12321,10 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J8">
         <v>8</v>
@@ -12333,7 +12333,7 @@
         <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O8" s="3">
         <v>42372</v>
@@ -12342,16 +12342,16 @@
         <v>121</v>
       </c>
       <c r="S8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T8" t="s">
+        <v>227</v>
+      </c>
+      <c r="U8" t="s">
         <v>228</v>
       </c>
-      <c r="U8" t="s">
-        <v>229</v>
-      </c>
       <c r="V8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="W8" s="3">
         <v>42372</v>
@@ -12383,13 +12383,13 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I9">
         <v>335</v>
       </c>
       <c r="M9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N9">
         <v>542</v>
@@ -12398,7 +12398,7 @@
         <v>42386</v>
       </c>
       <c r="P9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q9">
         <v>778</v>
@@ -12410,19 +12410,19 @@
         <v>122</v>
       </c>
       <c r="T9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W9" s="3">
         <v>42386</v>
       </c>
       <c r="X9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
@@ -12448,16 +12448,16 @@
         <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I10">
         <v>336</v>
       </c>
       <c r="L10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N10">
         <v>628</v>
@@ -12466,7 +12466,7 @@
         <v>42390</v>
       </c>
       <c r="P10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q10">
         <v>3000</v>
@@ -12478,10 +12478,10 @@
         <v>34</v>
       </c>
       <c r="T10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V10" t="s">
         <v>172</v>
@@ -12490,7 +12490,7 @@
         <v>42387</v>
       </c>
       <c r="X10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.45">
@@ -12516,7 +12516,7 @@
         <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I11">
         <v>351</v>
@@ -12531,7 +12531,7 @@
         <v>42464</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q11">
         <v>100</v>
@@ -12543,13 +12543,13 @@
         <v>34</v>
       </c>
       <c r="T11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W11" s="3">
         <v>42464</v>
@@ -12594,7 +12594,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -12668,7 +12668,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I2">
         <v>160</v>
@@ -12680,7 +12680,7 @@
         <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N2">
         <v>342</v>
@@ -12689,7 +12689,7 @@
         <v>37383</v>
       </c>
       <c r="P2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q2">
         <v>300</v>
@@ -12701,19 +12701,19 @@
         <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U2" t="s">
+        <v>244</v>
+      </c>
+      <c r="V2" t="s">
         <v>245</v>
-      </c>
-      <c r="V2" t="s">
-        <v>246</v>
       </c>
       <c r="W2" s="3">
         <v>37377</v>
       </c>
       <c r="X2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -12739,7 +12739,7 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I3">
         <v>86</v>
@@ -12763,19 +12763,19 @@
         <v>36</v>
       </c>
       <c r="T3" t="s">
+        <v>243</v>
+      </c>
+      <c r="U3" t="s">
         <v>244</v>
       </c>
-      <c r="U3" t="s">
-        <v>245</v>
-      </c>
       <c r="V3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W3" s="3">
         <v>42310</v>
       </c>
       <c r="X3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -12814,7 +12814,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -12888,13 +12888,13 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I2">
         <v>158</v>
       </c>
       <c r="M2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N2">
         <v>533</v>
@@ -12909,19 +12909,19 @@
         <v>34</v>
       </c>
       <c r="T2" t="s">
+        <v>250</v>
+      </c>
+      <c r="U2" t="s">
         <v>251</v>
       </c>
-      <c r="U2" t="s">
-        <v>252</v>
-      </c>
       <c r="V2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W2" s="3">
         <v>37361</v>
       </c>
       <c r="X2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -12960,7 +12960,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -13034,13 +13034,13 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I2">
         <v>197</v>
       </c>
       <c r="M2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N2">
         <v>344</v>
@@ -13061,19 +13061,19 @@
         <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U2" t="s">
+        <v>262</v>
+      </c>
+      <c r="V2" t="s">
         <v>263</v>
-      </c>
-      <c r="V2" t="s">
-        <v>264</v>
       </c>
       <c r="W2" s="3">
         <v>40262</v>
       </c>
       <c r="X2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -13099,7 +13099,7 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I3">
         <v>229</v>
@@ -13111,7 +13111,7 @@
         <v>41044</v>
       </c>
       <c r="P3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q3">
         <v>300</v>
@@ -13120,16 +13120,16 @@
         <v>53</v>
       </c>
       <c r="S3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="V3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W3" s="3">
         <v>41037</v>
@@ -13158,13 +13158,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I4">
         <v>379</v>
       </c>
       <c r="J4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -13179,7 +13179,7 @@
         <v>41400</v>
       </c>
       <c r="P4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q4">
         <v>1500</v>
@@ -13188,16 +13188,16 @@
         <v>68</v>
       </c>
       <c r="S4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T4" t="s">
+        <v>261</v>
+      </c>
+      <c r="U4" t="s">
         <v>262</v>
       </c>
-      <c r="U4" t="s">
-        <v>263</v>
-      </c>
       <c r="V4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W4" s="3">
         <v>41400</v>
@@ -13242,7 +13242,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -13316,7 +13316,7 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I2">
         <v>339</v>
@@ -13340,13 +13340,13 @@
         <v>120</v>
       </c>
       <c r="T2" t="s">
+        <v>267</v>
+      </c>
+      <c r="U2" t="s">
         <v>268</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>269</v>
-      </c>
-      <c r="V2" t="s">
-        <v>270</v>
       </c>
       <c r="W2" s="3">
         <v>42395</v>
@@ -13391,7 +13391,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -13465,10 +13465,10 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -13477,10 +13477,10 @@
         <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O2" s="3">
         <v>40877</v>
@@ -13489,22 +13489,22 @@
         <v>45</v>
       </c>
       <c r="S2" t="s">
+        <v>282</v>
+      </c>
+      <c r="T2" t="s">
         <v>283</v>
       </c>
-      <c r="T2" t="s">
-        <v>284</v>
-      </c>
       <c r="U2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="W2" s="3">
         <v>40848</v>
       </c>
       <c r="X2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -13530,13 +13530,13 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I3">
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N3">
         <v>163</v>
@@ -13545,7 +13545,7 @@
         <v>41687</v>
       </c>
       <c r="P3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q3">
         <v>1000</v>
@@ -13557,19 +13557,19 @@
         <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="W3" s="3">
         <v>41676</v>
       </c>
       <c r="X3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
@@ -13595,13 +13595,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I4">
         <v>272</v>
       </c>
       <c r="M4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N4">
         <v>497</v>
@@ -13610,7 +13610,7 @@
         <v>41707</v>
       </c>
       <c r="P4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q4">
         <v>1000</v>
@@ -13622,19 +13622,19 @@
         <v>114</v>
       </c>
       <c r="T4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W4" s="3">
         <v>41701</v>
       </c>
       <c r="X4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -13660,10 +13660,10 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J5">
         <v>7</v>
@@ -13672,19 +13672,19 @@
         <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M5" t="s">
         <v>84</v>
       </c>
       <c r="N5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O5" s="3">
         <v>42472</v>
       </c>
       <c r="P5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q5">
         <v>50</v>
@@ -13696,13 +13696,13 @@
         <v>34</v>
       </c>
       <c r="T5" t="s">
+        <v>286</v>
+      </c>
+      <c r="U5" t="s">
         <v>287</v>
       </c>
-      <c r="U5" t="s">
-        <v>288</v>
-      </c>
       <c r="V5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W5" s="3">
         <v>42472</v>
@@ -13734,7 +13734,7 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I6">
         <v>356</v>
@@ -13764,13 +13764,13 @@
         <v>34</v>
       </c>
       <c r="T6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="W6" s="3">
         <v>42480</v>
@@ -13796,10 +13796,10 @@
         <v>-1.3950485805663</v>
       </c>
       <c r="G7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I7">
         <v>358</v>
@@ -13817,7 +13817,7 @@
         <v>42492</v>
       </c>
       <c r="P7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q7">
         <v>300</v>
@@ -13829,19 +13829,19 @@
         <v>34</v>
       </c>
       <c r="T7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="W7" s="3">
         <v>42492</v>
       </c>
       <c r="X7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
